--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\palladium\source\cbs\LiveHTS\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\livedev\apps\LiveHTS\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Questionairre" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="572">
   <si>
     <t> </t>
   </si>
@@ -143,9 +144,6 @@
     <t>RefQId</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
     <t>Complex</t>
   </si>
   <si>
@@ -155,20 +153,1601 @@
     <t>=</t>
   </si>
   <si>
-    <t>!=</t>
-  </si>
-  <si>
     <t>Conditions</t>
   </si>
   <si>
     <t>Questions</t>
+  </si>
+  <si>
+    <t>Validations</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Validators</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Vid</t>
+  </si>
+  <si>
+    <t>6203c6f0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203cad8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203cc90-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203cd9e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203ce98-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203cf88-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203d442-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203d546-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203d62c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203d712-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203d802-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203d8de-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203dd3e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203de42-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203df82-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203e068-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203e16c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203e2a2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203e374-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203e78e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203e91e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203ea4a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203eb1c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203ec16-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203ecfc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203edce-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203f1d4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203f30a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203f418-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203f51c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203f6ac-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203f85a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203f9ea-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6203ff30-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040048-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040124-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040200-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620402dc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620403cc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620408f4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040a3e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040b24-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040c00-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040ce6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040dcc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62040eb2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620414b6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62041600-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620416dc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204183a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62041920-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620419fc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62041ae2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62041eac-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62041f92-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204206e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62042154-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204223a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62042320-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62042712-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204283e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204291a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620429ec-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62042ac8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62042b9a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62042c76-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043004-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043108-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620431ee-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620432d4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620433b0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043496-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043568-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043946-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043a4a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043b30-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043c0c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043cde-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62043dba-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62044238-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62044404-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62044594-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62044710-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62044878-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62044968-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62044a3a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620458a4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62045a7a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62045b6a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62045c46-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62045d22-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62045dfe-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204616e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046268-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046358-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204642a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204656a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046736-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046858-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046be6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046cd6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046dbc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046e8e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62046f60-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62047032-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62047406-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204750a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620475dc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620476ae-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62047794-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62047866-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62047938-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62047e24-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62047f50-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048040-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204811c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620481ee-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620482c0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048694-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048798-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204886a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048946-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048a22-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048af4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048bd0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62048f86-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204908a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62049166-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62049242-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62049ab2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62049c4c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62049d3c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a098-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a188-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a25a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a32c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a3fe-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a4da-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a890-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204a99e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204aa84-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204ab56-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204ac32-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204ad04-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204adf4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204b178-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204b272-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204b3bc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204b4c0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204b592-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204b66e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204b740-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204bab0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204bb8c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204bc68-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204bd3a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204be0c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204bede-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204c29e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204c44c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204c55a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204c67c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204c758-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204c834-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204c910-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204cca8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204cd8e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204ce6a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204cf3c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d00e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d0ea-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d43c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d536-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d608-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d6e4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d7b6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204d892-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204dbf8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204dd24-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204de00-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204dedc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204dfb8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e094-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e170-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e51c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e620-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e6fc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e7e2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e8b4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204e986-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204ea62-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204eddc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204eeb8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204ef94-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204f606-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204f78c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204f8a4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204fbf6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204fce6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204fdb8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204fe94-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6204ff70-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620500e2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62050308-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62050876-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620509e8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62050ace-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62050baa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62050c86-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62050d58-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620510f0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051208-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620512da-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620513b6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051488-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051550-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051a82-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051be0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051cc6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051d98-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051e6a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62051f3c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62052018-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620522f2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620523ec-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620524c8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205259a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205266c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205273e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62052810-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62052c66-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62052d7e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62052e5a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62052f2c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053008-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620530e4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620531b6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053576-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053652-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053724-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053800-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620538d2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620539ae-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053d50-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053e4a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053f26-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62053ff8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620540d4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620541a6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62054282-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620546ce-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620547e6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620548d6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620549a8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62054a70-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62054b4c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62054ebc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62055006-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62055114-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620551f0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620552d6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620553a8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620558a8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620559ca-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62055ac4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62055ba0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62055c72-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62055d4e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205608c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62056186-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62056262-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62056334-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620563fc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620564d8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620567f8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620568f2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620569c4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62056aa0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62056b72-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62056c4e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62056d20-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205705e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205713a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205720c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620572e8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620573c4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620574a0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62057824-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62057950-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62057a36-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62057b12-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620584c2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058666-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058742-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058abc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058bc0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058ca6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058d82-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058e54-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62058f26-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62059002-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620592f0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620593cc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620594a8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205957a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205964c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205971e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62059c28-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62059d54-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62059ebc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62059fac-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a07e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a15a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a236-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a51a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a5f6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a6c8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a7a4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a876-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205a948-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205accc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205adc6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205aea2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205af74-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b046-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b118-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b1f4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b50a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b5dc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b6ae-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b78a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b866-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205b942-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205bcee-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205be06-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205bed8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205bfaa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205c07c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205c158-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205c23e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205c6a8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205c87e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205c9fa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205cb6c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ccc0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205cdce-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ceaa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205d22e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205d30a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205d3e6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205d4b8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205d594-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205d666-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205d9d6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205dada-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205dbac-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205dc88-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205dd5a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205de36-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205df12-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205e304-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205e3e0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205e4b2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205e584-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205e660-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205e728-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ea66-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205eb6a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ecbe-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205edae-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ee8a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ef5c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f038-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f308-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f3f8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f4d4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f5b0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f682-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f75e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205f830-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205fbaa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205fc9a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205fd6c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205fe3e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ff1a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6205ffec-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620603fc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060528-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060640-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060744-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060834-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060924-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060a14-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060dac-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060eb0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62060faa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620610b8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620611a8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62061298-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62061478-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206190a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62061a18-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62061af4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62061dc4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62061ebe-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62061f90-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206206c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62062738-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62062828-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620628fa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620629d6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62062aa8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62062b8e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62062f26-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063020-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620630f2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620631c4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620632d2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063476-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063610-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063b1a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063c46-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063d22-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063e08-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063eda-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62063fca-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620644d4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62064600-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620646e6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620647cc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620648b2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62064a24-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62064ba0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62064f74-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206505a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206512c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62065208-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620664d2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620666c6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62066b8a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62066cac-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62066eb4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62066f90-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206706c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206713e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206721a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62067652-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62067760-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206783c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620679ea-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62067ad0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62067ba2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62067fa8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620680ca-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620681b0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62068282-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620683ae-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62068548-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62068778-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62068d18-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62068e58-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62068f34-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62069010-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620690ec-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62069204-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620692e0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620696dc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620697cc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>620698bc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206998e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62069a60-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62069b3c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>62069fe2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a10e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a1f4-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a2d0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a3a2-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a47e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a546-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a8ca-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206a9a6-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206aa78-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206ab4a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206ac1c-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206acf8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206b13a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206b266-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206b360-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206b446-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206b572-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206b720-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206b8b0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206bd06-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206be1e-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206befa-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206bfcc-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206c0a8-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206c184-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206c256-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>6206c62a-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Rid</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>GoTo</t>
+  </si>
+  <si>
+    <t>GoToId</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Rm</t>
+  </si>
+  <si>
+    <t>Rng</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>Validator</t>
+  </si>
+  <si>
+    <t>LiveConditions</t>
+  </si>
+  <si>
+    <t>ReVailidations</t>
+  </si>
+  <si>
+    <t>Lkp</t>
+  </si>
+  <si>
+    <t>LKpId</t>
+  </si>
+  <si>
+    <t>Range.Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +1808,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +1871,20 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -387,14 +2018,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -404,43 +2060,214 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="67">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF3F3F76"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF3F3F76"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -451,98 +2278,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -574,6 +2309,881 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF3F3F76"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -618,26 +3228,6 @@
         <b/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -652,29 +3242,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H14" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="1" name="QId" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Question" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="QNo" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Rank" dataDxfId="9" dataCellStyle="Input"/>
-    <tableColumn id="7" name="Type" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="LId" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Code" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Display" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="QId" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Question" dataDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="QNo" dataDxfId="62" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Rank" dataDxfId="61" dataCellStyle="Input"/>
+    <tableColumn id="7" name="Type" dataDxfId="60" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="LId" dataDxfId="59" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Code" dataDxfId="58" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Display" dataDxfId="57" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="L3:P5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <tableColumns count="5">
-    <tableColumn id="1" name="QId" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="RefQId" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="ResponseType" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Response" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Complex" dataDxfId="1" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="J3:T5" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="11">
+    <tableColumn id="4" name="Q" dataDxfId="52" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Type" dataDxfId="47" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="46" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="5" name="Check" dataDxfId="51"/>
+    <tableColumn id="2" name="RefQId" dataDxfId="45" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="ResponseType" dataDxfId="50" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="R" dataDxfId="49"/>
+    <tableColumn id="8" name="Rid" dataDxfId="44" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="12" name="Action" dataDxfId="43" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="GoTo" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="GoToId" dataDxfId="42" dataCellStyle="Explanatory Text"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="W3:AD10" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="8">
+    <tableColumn id="4" name="Q" dataDxfId="7" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="6" dataCellStyle="Good"/>
+    <tableColumn id="5" name="Validators" dataDxfId="5" dataCellStyle="Input"/>
+    <tableColumn id="2" name="Vid" dataDxfId="4" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="Type" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Min" dataDxfId="2"/>
+    <tableColumn id="8" name="Max" dataDxfId="1" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="Complex" dataDxfId="0" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="J8:T10" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="11">
+    <tableColumn id="4" name="Q" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Type" dataDxfId="29" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="28" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="5" name="Check" dataDxfId="36"/>
+    <tableColumn id="2" name="RefQId" dataDxfId="35" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="ResponseType" dataDxfId="34" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="R" dataDxfId="33"/>
+    <tableColumn id="8" name="Rid" dataDxfId="32" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="12" name="Action" dataDxfId="31" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="Lkp" dataDxfId="30" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="LKpId" dataDxfId="14" dataCellStyle="Explanatory Text"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1356" displayName="Table1356" ref="J14:T15" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="11">
+    <tableColumn id="4" name="Q" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Type" dataDxfId="22" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="21" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="5" name="Check" dataDxfId="20"/>
+    <tableColumn id="2" name="RefQId" dataDxfId="19" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="ResponseType" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="R" dataDxfId="17"/>
+    <tableColumn id="8" name="Rid" dataDxfId="16" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="12" name="Action" dataDxfId="15" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="Validator" dataDxfId="13" dataCellStyle="Input"/>
+    <tableColumn id="11" name="Vid" dataDxfId="12" dataCellStyle="Explanatory Text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,10 +3627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P13"/>
+  <dimension ref="A2:AH15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,28 +3638,55 @@
     <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" customWidth="1"/>
+    <col min="32" max="32" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="15" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="W2" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,23 +3711,68 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="J3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="O3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AG3" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1075,21 +3797,68 @@
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="10"/>
+      <c r="AF4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
@@ -1104,21 +3873,68 @@
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="J5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="M5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="12"/>
+      <c r="AF5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1143,8 +3959,35 @@
       <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="26"/>
+      <c r="AF6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
@@ -1159,8 +4002,41 @@
       <c r="H7" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J7" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="W7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="26"/>
+      <c r="AF7" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
@@ -1175,8 +4051,63 @@
       <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="28"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1195,8 +4126,61 @@
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="28"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1221,8 +4205,63 @@
       <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="44"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
@@ -1240,7 +4279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -1258,34 +4297,2640 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="S15" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="2">
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\livedev\apps\LiveHTS\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\palladium\source\cbs\LiveHTS\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Questionairre" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="589">
   <si>
     <t> </t>
   </si>
@@ -153,9 +154,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Conditions</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -1728,9 +1726,6 @@
     <t>Validator</t>
   </si>
   <si>
-    <t>LiveConditions</t>
-  </si>
-  <si>
     <t>ReVailidations</t>
   </si>
   <si>
@@ -1741,13 +1736,70 @@
   </si>
   <si>
     <t>Range.Review</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Transformations</t>
+  </si>
+  <si>
+    <t>Range.Revision</t>
+  </si>
+  <si>
+    <t>RemoteTransformations</t>
+  </si>
+  <si>
+    <t>Discordant</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>RemoteCheck</t>
+  </si>
+  <si>
+    <t>RemoteRefQId</t>
+  </si>
+  <si>
+    <t>RemoteRef</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>!=[?]&amp;</t>
+  </si>
+  <si>
+    <t>RRid</t>
+  </si>
+  <si>
+    <t>Qid</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>ResId</t>
+  </si>
+  <si>
+    <t>AltRes</t>
+  </si>
+  <si>
+    <t>AltResId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,14 +1824,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1848,6 +1892,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1884,7 +1974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2042,19 +2132,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2064,40 +2238,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2106,138 +2310,93 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color rgb="FF3F3F76"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF3F3F76"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2263,10 +2422,64 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2330,8 +2543,39 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2342,15 +2586,665 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2370,20 +3264,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2424,18 +3304,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2452,50 +3320,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2526,50 +3350,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2591,23 +3371,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2630,50 +3410,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2728,7 +3464,191 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2740,6 +3660,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF3F3F76"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2747,63 +3693,28 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF006100"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2816,20 +3727,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF3F3F76"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2851,23 +3752,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2892,18 +3793,18 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2944,120 +3845,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3164,69 +3951,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF3F3F76"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3242,89 +3966,125 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H14" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H16" totalsRowShown="0" headerRowDxfId="36" dataDxfId="38" headerRowBorderDxfId="37" dataCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="1" name="QId" dataDxfId="64" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Question" dataDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="QNo" dataDxfId="62" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Rank" dataDxfId="61" dataCellStyle="Input"/>
-    <tableColumn id="7" name="Type" dataDxfId="60" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="LId" dataDxfId="59" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Code" dataDxfId="58" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Display" dataDxfId="57" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="QId" dataDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Question" dataDxfId="44" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="QNo" dataDxfId="45" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Rank" dataDxfId="43" dataCellStyle="Input"/>
+    <tableColumn id="7" name="Type" dataDxfId="42" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="LId" dataDxfId="41" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Code" dataDxfId="39" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Display" dataDxfId="40" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="J3:T5" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="J3:T5" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93" totalsRowBorderDxfId="92" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="11">
-    <tableColumn id="4" name="Q" dataDxfId="52" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Type" dataDxfId="47" dataCellStyle="Input"/>
-    <tableColumn id="1" name="QId" dataDxfId="46" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="5" name="Check" dataDxfId="51"/>
-    <tableColumn id="2" name="RefQId" dataDxfId="45" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="9" name="ResponseType" dataDxfId="50" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="R" dataDxfId="49"/>
-    <tableColumn id="8" name="Rid" dataDxfId="44" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="12" name="Action" dataDxfId="43" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="7" name="GoTo" dataDxfId="48" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="GoToId" dataDxfId="42" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="4" name="Q" dataDxfId="91" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Type" dataDxfId="31" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="30" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="5" name="Check" dataDxfId="90"/>
+    <tableColumn id="2" name="RefQId" dataDxfId="35" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="ResponseType" dataDxfId="89" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="R" dataDxfId="88"/>
+    <tableColumn id="8" name="Rid" dataDxfId="25" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="12" name="Action" dataDxfId="87" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="GoTo" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="GoToId" dataDxfId="22" dataCellStyle="Explanatory Text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="W3:AD10" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="W3:AD10" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="4" name="Q" dataDxfId="7" dataCellStyle="Input"/>
-    <tableColumn id="1" name="QId" dataDxfId="6" dataCellStyle="Good"/>
-    <tableColumn id="5" name="Validators" dataDxfId="5" dataCellStyle="Input"/>
-    <tableColumn id="2" name="Vid" dataDxfId="4" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="9" name="Type" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Min" dataDxfId="2"/>
-    <tableColumn id="8" name="Max" dataDxfId="1" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="7" name="Complex" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Q" dataDxfId="81" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="80" dataCellStyle="Good"/>
+    <tableColumn id="5" name="Validators" dataDxfId="79" dataCellStyle="Input"/>
+    <tableColumn id="2" name="Vid" dataDxfId="78" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="Type" dataDxfId="77" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Min" dataDxfId="76"/>
+    <tableColumn id="8" name="Max" dataDxfId="75" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="Complex" dataDxfId="74" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="J8:T10" totalsRowShown="0" headerRowDxfId="41" headerRowBorderDxfId="39" tableBorderDxfId="40" totalsRowBorderDxfId="38" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="J8:T10" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="11">
-    <tableColumn id="4" name="Q" dataDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Q" dataDxfId="69" dataCellStyle="Normal"/>
     <tableColumn id="10" name="Type" dataDxfId="29" dataCellStyle="Input"/>
     <tableColumn id="1" name="QId" dataDxfId="28" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="5" name="Check" dataDxfId="36"/>
-    <tableColumn id="2" name="RefQId" dataDxfId="35" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="9" name="ResponseType" dataDxfId="34" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="R" dataDxfId="33"/>
-    <tableColumn id="8" name="Rid" dataDxfId="32" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="12" name="Action" dataDxfId="31" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="7" name="Lkp" dataDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="11" name="LKpId" dataDxfId="14" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="5" name="Check" dataDxfId="68"/>
+    <tableColumn id="2" name="RefQId" dataDxfId="34" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="ResponseType" dataDxfId="67" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="R" dataDxfId="66"/>
+    <tableColumn id="8" name="Rid" dataDxfId="24" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="12" name="Action" dataDxfId="65" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="Lkp" dataDxfId="64" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="LKpId" dataDxfId="21" dataCellStyle="Explanatory Text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1356" displayName="Table1356" ref="J14:T15" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1356" displayName="Table1356" ref="J14:T15" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="11">
-    <tableColumn id="4" name="Q" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Type" dataDxfId="22" dataCellStyle="Input"/>
-    <tableColumn id="1" name="QId" dataDxfId="21" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="5" name="Check" dataDxfId="20"/>
-    <tableColumn id="2" name="RefQId" dataDxfId="19" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="9" name="ResponseType" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="R" dataDxfId="17"/>
-    <tableColumn id="8" name="Rid" dataDxfId="16" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="12" name="Action" dataDxfId="15" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="7" name="Validator" dataDxfId="13" dataCellStyle="Input"/>
-    <tableColumn id="11" name="Vid" dataDxfId="12" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="4" name="Q" dataDxfId="59" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Type" dataDxfId="27" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="26" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="5" name="Check" dataDxfId="58"/>
+    <tableColumn id="2" name="RefQId" dataDxfId="33" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="ResponseType" dataDxfId="57" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="R" dataDxfId="56"/>
+    <tableColumn id="8" name="Rid" dataDxfId="23" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="12" name="Action" dataDxfId="55" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="Validator" dataDxfId="54" dataCellStyle="Input"/>
+    <tableColumn id="11" name="Vid" dataDxfId="20" dataCellStyle="Explanatory Text"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1357" displayName="Table1357" ref="J18:T20" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="11">
+    <tableColumn id="4" name="Q" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Type" dataDxfId="18" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="16" dataCellStyle="Good"/>
+    <tableColumn id="5" name="Check" dataDxfId="17"/>
+    <tableColumn id="2" name="RefQId" dataDxfId="32" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="ResponseType" dataDxfId="48" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="R" dataDxfId="15"/>
+    <tableColumn id="8" name="Rid" dataDxfId="13" dataCellStyle="Input"/>
+    <tableColumn id="12" name="Action" dataDxfId="14" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="7" name="Lkp" dataDxfId="47" dataCellStyle="Normal"/>
+    <tableColumn id="11" name="LKpId" dataDxfId="19" dataCellStyle="Explanatory Text"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table13578" displayName="Table13578" ref="A4:I5" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="9">
+    <tableColumn id="4" name="Q" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Type" dataDxfId="6" dataCellStyle="Input"/>
+    <tableColumn id="1" name="QId" dataDxfId="4" dataCellStyle="Good"/>
+    <tableColumn id="14" name="RemoteRef" dataDxfId="3" dataCellStyle="Input"/>
+    <tableColumn id="5" name="RemoteCheck" dataDxfId="5"/>
+    <tableColumn id="2" name="RemoteRefQId" dataDxfId="7" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="30" name="ResponseType" dataDxfId="2" dataCellStyle="Input"/>
+    <tableColumn id="29" name="RR" dataDxfId="1" dataCellStyle="Input"/>
+    <tableColumn id="20" name="RRid" dataDxfId="0" dataCellStyle="Input"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3627,33 +4387,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AH15"/>
+  <dimension ref="A2:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="48" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="48" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="48" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" style="53" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
@@ -3671,755 +4431,914 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="12"/>
+      <c r="W2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="K3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="M3" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="9"/>
+      <c r="AF4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="11"/>
+      <c r="AF5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="24"/>
+      <c r="AF6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="12"/>
+      <c r="W7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="24"/>
+      <c r="AF7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="29" t="s">
+      <c r="L8" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="T8" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="W8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="26"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="26"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="36">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="37"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L14" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M14" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="Q14" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="T14" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="T15" s="53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J17" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="N18" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P18" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q18" s="50" t="s">
         <v>555</v>
       </c>
-      <c r="Q3" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="T3" s="35" t="s">
+      <c r="R18" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="W3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG3" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="20" t="s">
+      <c r="S18" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="T18" s="54" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="L19" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="10"/>
-      <c r="AF4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH4" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="M19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="L5" s="18" t="s">
+      <c r="N19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="O19" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J20" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N20" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="30" t="s">
+      <c r="O20" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="P20" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q20" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="12"/>
-      <c r="AF5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="26"/>
-      <c r="AF6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="W7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="26"/>
-      <c r="AF7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="28"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="S9" s="3" t="s">
+      <c r="R20" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="S20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="W9" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="28"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="W10" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y10" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="Z10" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="22">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="44"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>568</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>556</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="S14" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="T14" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="J15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="S15" s="41" t="s">
-        <v>571</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J13:K13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4428,7 +5347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4437,2500 +5358,2636 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="23" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="25" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="23" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="25" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="23" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="25" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="23" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="25" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="23" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="25" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="23" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="25" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="23" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="25" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="23" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="25" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="23" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="25" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="23" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="25" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>559</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="M4" t="s">
+        <v>585</v>
+      </c>
+      <c r="N4" t="s">
+        <v>586</v>
+      </c>
+      <c r="O4" t="s">
+        <v>587</v>
+      </c>
+      <c r="P4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Modules &amp; Forms" sheetId="10" r:id="rId1"/>
@@ -18,28 +18,44 @@
     <sheet name="Validations" sheetId="5" r:id="rId4"/>
     <sheet name="Branches" sheetId="4" r:id="rId5"/>
     <sheet name="Transformations" sheetId="7" r:id="rId6"/>
-    <sheet name="ReVailidations" sheetId="8" r:id="rId7"/>
-    <sheet name="RemoteTransformations" sheetId="3" r:id="rId8"/>
+    <sheet name="RemoteTransformations" sheetId="13" r:id="rId7"/>
+    <sheet name="ReVailidations" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="Actions" localSheetId="6">Table8[Ref]</definedName>
     <definedName name="Actions">Table8[Ref]</definedName>
+    <definedName name="Concepts" localSheetId="6">Table20[Ref]</definedName>
     <definedName name="Concepts">Table20[Ref]</definedName>
     <definedName name="ConcetptTypeIDs">'Concepts &amp; Questionniare'!$G$3:$G$131</definedName>
+    <definedName name="Conditions" localSheetId="6">Table6[Name]</definedName>
     <definedName name="Conditions">Table6[Name]</definedName>
+    <definedName name="CondTypes" localSheetId="6">Table6[Ref]</definedName>
     <definedName name="CondTypes">Table6[Ref]</definedName>
     <definedName name="CTypeIds">'Concepts &amp; Questionniare'!$P$3:$P$6</definedName>
+    <definedName name="CTypeIds2" localSheetId="6">Table2[Name]</definedName>
     <definedName name="CTypeIds2">Table2[Name]</definedName>
+    <definedName name="CTypeIds22" localSheetId="6">Table2[Ref]</definedName>
     <definedName name="CTypeIds22">Table2[Ref]</definedName>
+    <definedName name="FormIds" localSheetId="6">Table204[Ref]</definedName>
     <definedName name="FormIds">Table204[Ref]</definedName>
+    <definedName name="ItemIds" localSheetId="6">Table19[Ref]</definedName>
     <definedName name="ItemIds">Table19[Ref]</definedName>
+    <definedName name="LkCatId" localSheetId="6">Table1922[Ref]</definedName>
     <definedName name="LkCatId">Table1922[Ref]</definedName>
+    <definedName name="LkupId" localSheetId="6">Table19222[CategoryId]</definedName>
     <definedName name="LkupId">Table19222[CategoryId]</definedName>
+    <definedName name="ModuleIds" localSheetId="6">Table2046[Ref]</definedName>
     <definedName name="ModuleIds">Table2046[Ref]</definedName>
+    <definedName name="Modules" localSheetId="6">Table2046[[#All],[Id]:[Name]]</definedName>
     <definedName name="Modules">Table2046[[#All],[Id]:[Name]]</definedName>
+    <definedName name="ModulesList" localSheetId="6">Table2046[[Id]:[Name]]</definedName>
     <definedName name="ModulesList">Table2046[[Id]:[Name]]</definedName>
     <definedName name="Qs">'Concepts &amp; Questionniare'!$G$3:$G$8</definedName>
-    <definedName name="SubjectRef">Branches!$T$4</definedName>
+    <definedName name="QVidss">Table11[Ref]</definedName>
+    <definedName name="SubjectRef">Branches!$V$4</definedName>
+    <definedName name="Validators" localSheetId="6">Table9[Ref]</definedName>
     <definedName name="Validators">Table9[Ref]</definedName>
+    <definedName name="ValidatorTypes" localSheetId="6">Table4[Ref]</definedName>
     <definedName name="ValidatorTypes">Table4[Ref]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -52,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
   <si>
     <t>Consent</t>
   </si>
@@ -237,9 +253,6 @@
     <t>6206a3a2-6260-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>6206a47e-6260-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
     <t>6206a9a6-6260-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
@@ -318,9 +331,6 @@
     <t>Pre</t>
   </si>
   <si>
-    <t>Range.Revision</t>
-  </si>
-  <si>
     <t>Discordant</t>
   </si>
   <si>
@@ -453,9 +463,6 @@
     <t>Concepts</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>ConceptId</t>
   </si>
   <si>
@@ -510,9 +517,6 @@
     <t>5.Discordant  ,6206acf8-6260-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>Range.Revision  ,6203c6f0-6260-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
     <t>Qid</t>
   </si>
   <si>
@@ -546,33 +550,9 @@
     <t>Partner  ,0</t>
   </si>
   <si>
-    <t>RRid</t>
-  </si>
-  <si>
-    <t>CheckQId</t>
-  </si>
-  <si>
-    <t>CheckRid</t>
-  </si>
-  <si>
     <t>Set  ,3</t>
   </si>
   <si>
-    <t>TRId</t>
-  </si>
-  <si>
-    <t>TRContent</t>
-  </si>
-  <si>
-    <t>AltTRid</t>
-  </si>
-  <si>
-    <t>AltRContent</t>
-  </si>
-  <si>
-    <t>CResponseType</t>
-  </si>
-  <si>
     <t>Branches</t>
   </si>
   <si>
@@ -600,13 +580,40 @@
     <t>Range  ,2</t>
   </si>
   <si>
-    <t>Range.Revision  ,3</t>
-  </si>
-  <si>
     <t>Count  ,2</t>
   </si>
   <si>
     <t>Numeric  ,1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>ResponseComplex</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>CheckRefQId</t>
+  </si>
+  <si>
+    <t>AltContent</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>QuestionValidationId</t>
+  </si>
+  <si>
+    <t>Range  ,2,6206a3a2-6260-11e7-907b-a6006ad3dba0</t>
   </si>
 </sst>
 </file>
@@ -787,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -802,25 +809,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -834,6 +870,20 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -854,6 +904,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -881,9 +954,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -906,15 +976,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1057,102 +1118,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1168,12 +1134,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table2046" displayName="Table2046" ref="A2:E3" totalsRowShown="0">
-  <autoFilter ref="A2:E3"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table2046" displayName="Table2046" ref="A2:F3" totalsRowShown="0">
+  <autoFilter ref="A2:F3"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Display"/>
+    <tableColumn id="6" name="Description"/>
     <tableColumn id="4" name="Rank"/>
     <tableColumn id="5" name="Ref">
       <calculatedColumnFormula>Table2046[Name]&amp;", "&amp;Table2046[Id]</calculatedColumnFormula>
@@ -1184,12 +1151,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="O2:Q4" totalsRowShown="0">
-  <autoFilter ref="O2:Q4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="P2:R5" totalsRowShown="0">
+  <autoFilter ref="P2:R5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Ref" dataDxfId="2">
+    <tableColumn id="3" name="Ref" dataDxfId="6">
       <calculatedColumnFormula>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1198,14 +1165,16 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:G4" totalsRowShown="0">
-  <autoFilter ref="A2:G4"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Id" dataDxfId="21" dataCellStyle="Explanatory Text"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:I4" totalsRowShown="0">
+  <autoFilter ref="A2:I4"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Id" dataDxfId="5" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Qid"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="7" name="ResponseType"/>
     <tableColumn id="9" name="Rid"/>
+    <tableColumn id="4" name="ResponseComplex"/>
+    <tableColumn id="5" name="Group"/>
     <tableColumn id="10" name="Action"/>
     <tableColumn id="12" name="GoToQId"/>
   </tableColumns>
@@ -1214,12 +1183,12 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="J3:L5" totalsRowShown="0">
-  <autoFilter ref="J3:L5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="L3:N5" totalsRowShown="0">
+  <autoFilter ref="L3:N5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="1">
+    <tableColumn id="3" name="Ref" dataDxfId="4">
       <calculatedColumnFormula>Table6[[#This Row],[Name]]&amp;"  ,"&amp;Table6[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1228,8 +1197,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="N3:P7" totalsRowShown="0">
-  <autoFilter ref="N3:P7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="P3:R7" totalsRowShown="0">
+  <autoFilter ref="P3:R7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
@@ -1242,8 +1211,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table811" displayName="Table811" ref="R3:T7" totalsRowShown="0">
-  <autoFilter ref="R3:T7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table811" displayName="Table811" ref="T3:V7" totalsRowShown="0">
+  <autoFilter ref="T3:V7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
@@ -1256,74 +1225,76 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:I4" totalsRowShown="0">
-  <autoFilter ref="A2:I4"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:J4" totalsRowShown="0">
+  <autoFilter ref="A2:J4"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Qid"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="4" name="RefQId"/>
     <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="9" name="Rid"/>
+    <tableColumn id="9" name="Response"/>
+    <tableColumn id="8" name="ResponseComplex"/>
+    <tableColumn id="6" name="Group"/>
     <tableColumn id="10" name="Action"/>
-    <tableColumn id="12" name="ItemId"/>
-    <tableColumn id="5" name="Content"/>
+    <tableColumn id="12" name="Content"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A2:H3" totalsRowShown="0">
-  <autoFilter ref="A2:H3"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table713" displayName="Table713" ref="A2:M8" totalsRowShown="0">
+  <autoFilter ref="A2:M8"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="20" name="Qid"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="4" name="SubjectRef"/>
+    <tableColumn id="5" name="RefQId"/>
+    <tableColumn id="21" name="CheckRefQId"/>
+    <tableColumn id="7" name="RResponseType"/>
+    <tableColumn id="9" name="Response" dataDxfId="2" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="8" name="ResponseComplex"/>
+    <tableColumn id="6" name="Group"/>
+    <tableColumn id="15" name="Action"/>
+    <tableColumn id="17" name="Content" dataDxfId="1" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="18" name="AltContent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="A2:J3" totalsRowShown="0">
+  <autoFilter ref="A2:J3"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Q"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="6" name="RefQId"/>
     <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="9" name="Rid"/>
+    <tableColumn id="9" name="Response"/>
+    <tableColumn id="4" name="ResponseComplex"/>
+    <tableColumn id="5" name="Group"/>
     <tableColumn id="10" name="Action"/>
-    <tableColumn id="12" name="ValidatorId"/>
+    <tableColumn id="12" name="QuestionValidationId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A2:O5" totalsRowShown="0">
-  <autoFilter ref="A2:O5"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="19" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="20" name="Qid"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="4" name="SubjectRef"/>
-    <tableColumn id="5" name="RefQId"/>
-    <tableColumn id="7" name="RResponseType"/>
-    <tableColumn id="9" name="RRid" dataDxfId="18" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="11" name="CheckQId"/>
-    <tableColumn id="12" name="CResponseType"/>
-    <tableColumn id="14" name="CheckRid" dataDxfId="17" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="15" name="Action"/>
-    <tableColumn id="17" name="TRId" dataDxfId="16" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="3" name="TRContent" dataDxfId="0" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="18" name="AltTRid"/>
-    <tableColumn id="19" name="AltRContent" dataDxfId="15" dataCellStyle="Explanatory Text"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table204" displayName="Table204" ref="A9:F11" totalsRowShown="0">
-  <autoFilter ref="A9:F11"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table204" displayName="Table204" ref="A9:G11" totalsRowShown="0">
+  <autoFilter ref="A9:G11"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="7" name="Display"/>
+    <tableColumn id="4" name="Description"/>
     <tableColumn id="3" name="Rank"/>
     <tableColumn id="5" name="ModuleId"/>
-    <tableColumn id="6" name="Ref" dataDxfId="10">
+    <tableColumn id="6" name="Ref" dataDxfId="19">
       <calculatedColumnFormula>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1332,14 +1303,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="J2:N8" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="J2:N8" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="J2:N8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" name="Question" dataDxfId="12"/>
-    <tableColumn id="5" name="Type" dataDxfId="11"/>
-    <tableColumn id="3" name="LookupId" dataDxfId="7"/>
-    <tableColumn id="4" name="Ref" dataDxfId="5">
+    <tableColumn id="1" name="Id" dataDxfId="17"/>
+    <tableColumn id="2" name="Question" dataDxfId="16"/>
+    <tableColumn id="5" name="Type" dataDxfId="15"/>
+    <tableColumn id="3" name="LookupId" dataDxfId="14"/>
+    <tableColumn id="4" name="Ref" dataDxfId="13">
       <calculatedColumnFormula>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1353,7 +1324,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="6">
+    <tableColumn id="3" name="Ref" dataDxfId="12">
       <calculatedColumnFormula>Table2[[#This Row],[Name]]&amp;"  ,"&amp;Table2[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1368,7 +1339,7 @@
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Code"/>
     <tableColumn id="3" name="Display"/>
-    <tableColumn id="4" name="Ref" dataDxfId="8">
+    <tableColumn id="4" name="Ref" dataDxfId="11">
       <calculatedColumnFormula>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1382,7 +1353,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="5" name="Category"/>
-    <tableColumn id="2" name="Ref" dataDxfId="9">
+    <tableColumn id="2" name="Ref" dataDxfId="10">
       <calculatedColumnFormula>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1405,28 +1376,32 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:F10" totalsRowShown="0">
-  <autoFilter ref="A2:F10"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="20" dataCellStyle="Explanatory Text"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:H10" totalsRowShown="0">
+  <autoFilter ref="A2:H10"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Id" dataDxfId="9" dataCellStyle="Explanatory Text"/>
     <tableColumn id="3" name="QId"/>
     <tableColumn id="4" name="ValidatorId"/>
     <tableColumn id="5" name="ValidatorTypeId"/>
+    <tableColumn id="2" name="Revision"/>
     <tableColumn id="7" name="Min"/>
     <tableColumn id="8" name="Max"/>
+    <tableColumn id="6" name="Ref" dataDxfId="0">
+      <calculatedColumnFormula>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="J2:M5" totalsRowShown="0">
-  <autoFilter ref="J2:M5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="K2:N4" totalsRowShown="0">
+  <autoFilter ref="K2:N4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="4" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="8" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Type"/>
     <tableColumn id="3" name="Rank"/>
-    <tableColumn id="4" name="Ref" dataDxfId="3">
+    <tableColumn id="4" name="Ref" dataDxfId="7">
       <calculatedColumnFormula>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1731,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,114 +1719,129 @@
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <f>Table2046[Name]&amp;", "&amp;Table2046[Id]</f>
         <v>HTS Module, 62040ce6-6260-11e7-907b-a6006ad3dba0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>107</v>
-      </c>
       <c r="F9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
         <v>HTS Lab Form,62040dcc-6260-11e7-907b-a6006ad3dba0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
         <v>HTS Linkage Form,62040eb2-6260-11e7-907b-a6006ad3dba0</v>
       </c>
@@ -1861,8 +1851,8 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F11">
       <formula1>ModuleIds</formula1>
     </dataValidation>
   </dataValidations>
@@ -1878,15 +1868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
@@ -1902,28 +1892,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="J1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="P1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q1" s="11"/>
+      <c r="A1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="J1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="P1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>25</v>
@@ -1932,13 +1922,13 @@
         <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -1947,27 +1937,27 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1979,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;"."&amp;D3&amp;"  ,"&amp;A3</f>
@@ -1992,12 +1982,12 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="N3" s="13" t="str">
+        <v>164</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Consent  ,00c2a60a-6246-11e7-907b-a6006ad3dba0</v>
       </c>
@@ -2014,10 +2004,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -2029,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">C4&amp;"."&amp;D4&amp;"  ,"&amp;A4</f>
@@ -2042,12 +2032,12 @@
         <v>4</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" s="13" t="str">
+        <v>164</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Result  ,00c2aa06-6246-11e7-907b-a6006ad3dba0</v>
       </c>
@@ -2064,10 +2054,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -2079,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -2092,10 +2082,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13" t="str">
+        <v>165</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>No of Kits  ,00c2b14a-6246-11e7-907b-a6006ad3dba0</v>
       </c>
@@ -2112,10 +2102,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -2127,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -2140,12 +2130,12 @@
         <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="13" t="str">
+        <v>166</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Referall  ,00c2b23a-6246-11e7-907b-a6006ad3dba0</v>
       </c>
@@ -2162,22 +2152,22 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -2187,25 +2177,25 @@
         <v>40</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" s="13" t="str">
+        <v>164</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Discordant  ,6203cad8-6260-11e7-907b-a6006ad3dba0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C8" s="10">
         <v>6</v>
@@ -2217,7 +2207,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2230,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13" t="str">
+        <v>167</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Remarks  ,00c2b550-6246-11e7-907b-a6006ad3dba0</v>
       </c>
@@ -2270,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,33 +2283,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="11"/>
       <c r="F1" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -2328,10 +2318,10 @@
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
@@ -2340,7 +2330,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2348,26 +2338,26 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>YesNo  ,62040a3e-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -2395,19 +2385,19 @@
         <v>Result  ,62040b24-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -2428,35 +2418,35 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>Services  ,62040c00-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O5" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -2465,28 +2455,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O6" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -2495,28 +2485,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O7" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -2525,19 +2515,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -2555,19 +2545,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -2585,19 +2575,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
         <v>21</v>
@@ -2615,28 +2605,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -2666,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2678,248 +2668,324 @@
     <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="J1" s="11" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="O1" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L1" s="14"/>
+      <c r="P1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" t="s">
-        <v>95</v>
+      <c r="N2" t="s">
+        <v>109</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="1">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;"  ,"&amp;Table11[[#This Row],[Id]]</f>
+        <v>Required  ,1  ,62069a60-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
         <v>Required  ,1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" t="str">
+        <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
+        <v>None  ,0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
+        <v>Required  ,1,62069b3c-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="str">
+        <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
+        <v>Range  ,2</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R4" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
         <v>Numeric  ,1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="1">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
+        <v>Required  ,1,62069fe2-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="P5">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="str">
-        <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
-        <v>Range  ,2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="str">
+      <c r="Q5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="16" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
         <v>Count  ,2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5">
-        <v>2.1</v>
-      </c>
-      <c r="M5" t="str">
-        <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
-        <v>Range.Revision  ,3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
+        <v>Required  ,1,6206a10e-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
+        <v>Required  ,1,6206a1f4-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
+        <v>Range  ,2,6206a2d0-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
+      <c r="H9" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
+        <v>Range  ,2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <v>5</v>
+      </c>
+      <c r="H10" t="str">
+        <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
+        <v>Range  ,2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B10">
@@ -2943,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,23 +3022,25 @@
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2981,169 +3049,181 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>93</v>
       </c>
       <c r="R3" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="T3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4">
+        <v>122</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="L4" t="str">
+      <c r="H4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="str">
         <f>Table6[[#This Row],[Name]]&amp;"  ,"&amp;Table6[[#This Row],[Id]]</f>
         <v>Post  ,0</v>
       </c>
-      <c r="N4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4">
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
-      <c r="P4" t="str">
+      <c r="R4" t="str">
         <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
         <v>None  ,0</v>
       </c>
-      <c r="R4" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4">
+      <c r="T4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4">
         <v>0</v>
       </c>
-      <c r="T4" t="str">
+      <c r="V4" t="str">
         <f>Table811[Name]&amp;"  ,"&amp;Table811[Id]</f>
         <v>Partner  ,0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="L5" t="str">
+      <c r="N5" t="str">
         <f>Table6[[#This Row],[Name]]&amp;"  ,"&amp;Table6[[#This Row],[Id]]</f>
         <v>Pre  ,1</v>
       </c>
-      <c r="N5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5">
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="P5" t="str">
+      <c r="R5" t="str">
         <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
         <v>Rng  ,1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="P6" t="str">
+      <c r="R6" t="str">
         <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
         <v>Rm  ,2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="P7" t="str">
+      <c r="R7" t="str">
         <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
         <v>Set  ,3</v>
       </c>
@@ -3154,16 +3234,16 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 G3:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 I3:I4">
       <formula1>Qs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4">
       <formula1>ItemIds</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4">
       <formula1>CondTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
       <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
@@ -3179,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,22 +3270,25 @@
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -3217,68 +3300,71 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3292,10 +3378,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4">
       <formula1>CondTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F4 H3:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J4 F3:H4">
       <formula1>ItemIds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4">
       <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
@@ -3308,10 +3394,302 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="N3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K8">
+      <formula1>Actions</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L8 M5:M8 H3:J8">
+      <formula1>ItemIds</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D8">
+      <formula1>SubjectRef</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C8">
+      <formula1>CondTypes</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 E3:F8">
+      <formula1>Qs</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,20 +3699,21 @@
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="37.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -3349,39 +3728,45 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" t="s">
-        <v>152</v>
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3395,269 +3780,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 D3">
       <formula1>Qs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:H3">
       <formula1>ItemIds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
       <formula1>Actions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>Validators</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
+      <formula1>QVidss</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B5 E3:E5 H3:H5">
-      <formula1>Qs</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C5">
-      <formula1>CondTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5">
-      <formula1>SubjectRef</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 J3:J5 L4:L5 N4:N5">
-      <formula1>ItemIds</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K5">
-      <formula1>Actions</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -5,57 +5,58 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\livedev\apps\LiveHTS\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\palladium\source\cbs\LiveHTS\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name=" Modules &amp; Forms" sheetId="10" r:id="rId1"/>
     <sheet name="Concepts &amp; Questionniare" sheetId="12" r:id="rId2"/>
-    <sheet name="Lookups" sheetId="9" r:id="rId3"/>
-    <sheet name="Validations" sheetId="5" r:id="rId4"/>
-    <sheet name="Branches" sheetId="4" r:id="rId5"/>
-    <sheet name="Transformations" sheetId="7" r:id="rId6"/>
-    <sheet name="RemoteTransformations" sheetId="13" r:id="rId7"/>
-    <sheet name="ReVailidations" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="Lookups" sheetId="9" r:id="rId4"/>
+    <sheet name="Validations" sheetId="5" r:id="rId5"/>
+    <sheet name="Branches" sheetId="4" r:id="rId6"/>
+    <sheet name="Transformations" sheetId="7" r:id="rId7"/>
+    <sheet name="RemoteTransformations" sheetId="13" r:id="rId8"/>
+    <sheet name="ReVailidations" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="Actions" localSheetId="6">Table8[Ref]</definedName>
+    <definedName name="Actions" localSheetId="7">Table8[Ref]</definedName>
     <definedName name="Actions">Table8[Ref]</definedName>
-    <definedName name="Concepts" localSheetId="6">Table20[Ref]</definedName>
+    <definedName name="Concepts" localSheetId="7">Table20[Ref]</definedName>
     <definedName name="Concepts">Table20[Ref]</definedName>
     <definedName name="ConcetptTypeIDs">'Concepts &amp; Questionniare'!$G$3:$G$131</definedName>
-    <definedName name="Conditions" localSheetId="6">Table6[Name]</definedName>
+    <definedName name="Conditions" localSheetId="7">Table6[Name]</definedName>
     <definedName name="Conditions">Table6[Name]</definedName>
-    <definedName name="CondTypes" localSheetId="6">Table6[Ref]</definedName>
+    <definedName name="CondTypes" localSheetId="7">Table6[Ref]</definedName>
     <definedName name="CondTypes">Table6[Ref]</definedName>
-    <definedName name="CTypeIds">'Concepts &amp; Questionniare'!$P$3:$P$6</definedName>
-    <definedName name="CTypeIds2" localSheetId="6">Table2[Name]</definedName>
+    <definedName name="CTypeIds">'Concepts &amp; Questionniare'!$Q$3:$Q$6</definedName>
+    <definedName name="CTypeIds2" localSheetId="7">Table2[Name]</definedName>
     <definedName name="CTypeIds2">Table2[Name]</definedName>
-    <definedName name="CTypeIds22" localSheetId="6">Table2[Ref]</definedName>
+    <definedName name="CTypeIds22" localSheetId="7">Table2[Ref]</definedName>
     <definedName name="CTypeIds22">Table2[Ref]</definedName>
-    <definedName name="FormIds" localSheetId="6">Table204[Ref]</definedName>
+    <definedName name="FormIds" localSheetId="7">Table204[Ref]</definedName>
     <definedName name="FormIds">Table204[Ref]</definedName>
-    <definedName name="ItemIds" localSheetId="6">Table19[Ref]</definedName>
+    <definedName name="ItemIds" localSheetId="7">Table19[Ref]</definedName>
     <definedName name="ItemIds">Table19[Ref]</definedName>
-    <definedName name="LkCatId" localSheetId="6">Table1922[Ref]</definedName>
+    <definedName name="LkCatId" localSheetId="7">Table1922[Ref]</definedName>
     <definedName name="LkCatId">Table1922[Ref]</definedName>
-    <definedName name="LkupId" localSheetId="6">Table19222[CategoryId]</definedName>
+    <definedName name="LkupId" localSheetId="7">Table19222[CategoryId]</definedName>
     <definedName name="LkupId">Table19222[CategoryId]</definedName>
-    <definedName name="ModuleIds" localSheetId="6">Table2046[Ref]</definedName>
+    <definedName name="ModuleIds" localSheetId="7">Table2046[Ref]</definedName>
     <definedName name="ModuleIds">Table2046[Ref]</definedName>
-    <definedName name="Modules" localSheetId="6">Table2046[[#All],[Id]:[Name]]</definedName>
+    <definedName name="Modules" localSheetId="7">Table2046[[#All],[Id]:[Name]]</definedName>
     <definedName name="Modules">Table2046[[#All],[Id]:[Name]]</definedName>
-    <definedName name="ModulesList" localSheetId="6">Table2046[[Id]:[Name]]</definedName>
+    <definedName name="ModulesList" localSheetId="7">Table2046[[Id]:[Name]]</definedName>
     <definedName name="ModulesList">Table2046[[Id]:[Name]]</definedName>
     <definedName name="Qs">'Concepts &amp; Questionniare'!$G$3:$G$8</definedName>
     <definedName name="QVidss">Table11[Ref]</definedName>
     <definedName name="SubjectRef">Branches!$V$4</definedName>
-    <definedName name="Validators" localSheetId="6">Table9[Ref]</definedName>
+    <definedName name="Validators" localSheetId="7">Table9[Ref]</definedName>
     <definedName name="Validators">Table9[Ref]</definedName>
-    <definedName name="ValidatorTypes" localSheetId="6">Table4[Ref]</definedName>
+    <definedName name="ValidatorTypes" localSheetId="7">Table4[Ref]</definedName>
     <definedName name="ValidatorTypes">Table4[Ref]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="679">
   <si>
     <t>Consent</t>
   </si>
@@ -346,9 +347,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>RResponseType</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -526,12 +524,6 @@
     <t>6.Remarks  ,6206b13a-6260-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>Post  ,0</t>
-  </si>
-  <si>
-    <t>None  ,0</t>
-  </si>
-  <si>
     <t>Pre  ,1</t>
   </si>
   <si>
@@ -541,18 +533,9 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Rng  ,1</t>
-  </si>
-  <si>
     <t>SubjectRef</t>
   </si>
   <si>
-    <t>Partner  ,0</t>
-  </si>
-  <si>
-    <t>Set  ,3</t>
-  </si>
-  <si>
     <t>Branches</t>
   </si>
   <si>
@@ -562,30 +545,6 @@
     <t>ReVailidations</t>
   </si>
   <si>
-    <t>Single  ,1</t>
-  </si>
-  <si>
-    <t>Numeric  ,2</t>
-  </si>
-  <si>
-    <t>Multi  ,3</t>
-  </si>
-  <si>
-    <t>Text  ,4</t>
-  </si>
-  <si>
-    <t>Required  ,1</t>
-  </si>
-  <si>
-    <t>Range  ,2</t>
-  </si>
-  <si>
-    <t>Count  ,2</t>
-  </si>
-  <si>
-    <t>Numeric  ,1</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -601,9 +560,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>CheckRefQId</t>
-  </si>
-  <si>
     <t>AltContent</t>
   </si>
   <si>
@@ -613,7 +569,1543 @@
     <t>QuestionValidationId</t>
   </si>
   <si>
-    <t>Range  ,2,6206a3a2-6260-11e7-907b-a6006ad3dba0</t>
+    <t>9f6e110a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1416-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1560-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1646-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1b46-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1c72-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1d4e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1e16-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1ede-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e1f9c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2064-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2492-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2578-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e267c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2794-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2870-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2938-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2a00-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2e1a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2f00-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e2fbe-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e3090-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e314e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e3216-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e32de-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e3702-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e37d4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e389c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e39dc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e4c42-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e4dc8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e51d8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e530e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e53ea-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e54b2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e56a6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e5782-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e584a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e5c00-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e5d04-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e5dd6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e5e9e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e5f5c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e6024-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e60ec-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e6592-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e66b4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e6786-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e684e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e690c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e69d4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e6a9c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e6e0c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e6efc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e6fc4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7082-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7140-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7230-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e72ee-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7690-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7762-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7820-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e78e8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e79a6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7a5a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7e06-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7ef6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e7ffa-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e80c2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8180-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8248-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8310-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e891e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8a72-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8b62-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8c34-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8cfc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8dc4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e8e8c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e924c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e9350-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e9418-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e94e0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e95a8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e9666-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6e972e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ea052-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ea296-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ea41c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ea57a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ea6ec-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ea836-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ea912-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eacf0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eadcc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eae94-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eaf52-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb07e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb178-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb240-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb60a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb6e6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb7a4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb876-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eb93e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eba06-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ebea2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ebfc4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec0aa-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec17c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec244-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec30c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec3de-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec758-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec83e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec906-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ec9c4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eca8c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ecb54-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ecc1c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ed0fe-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ed1f8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ed2c0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ed388-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ed450-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ed518-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ed5d6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eda72-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6edb58-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ede3c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6edf5e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee026-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee0ee-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee45e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee54e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee616-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee6de-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee7a6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ee86e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eec38-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eed50-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eee18-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eeeea-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6eefb2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef07a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef142-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef4e4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef5ca-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef692-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef75a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef818-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ef8e0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6efc50-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6efd40-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6efe94-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f0010-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f0196-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f02b8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f038a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f0718-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f07fe-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f08d0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f098e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f0a56-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f0b1e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f0e52-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f0f42-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f100a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f10d2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f119a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f1262-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f132a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f16a4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f179e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f1866-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f192e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f19ec-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f1ab4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f1b7c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f1eec-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f1fc8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f2086-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f214e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f2220-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f22de-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f2694-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f277a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f284c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f290a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f29d2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f2a9a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f2dec-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f2ee6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f2fb8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f340e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f353a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f360c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f36de-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f3a94-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f3b7a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f3c56-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f3d1e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f3de6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f3eae-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4048-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f43cc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f449e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4570-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f462e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f46f6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f47c8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4afc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4bec-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4d40-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4e26-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4eee-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f4fb6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f507e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f53e4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f54d4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f559c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f5664-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f572c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f57f4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f5b78-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f5c72-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f5d3a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f5e02-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f5ed4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f5f92-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6064-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f63c0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f64b0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6582-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6640-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6708-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f67d0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6ab4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6b9a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6c6c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6d34-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6dfc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f6ec4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f71e4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f72de-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7428-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f750e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f75d6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f76a8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f777a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7a2c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7b1c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7be4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7cac-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7d74-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7e46-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f7f0e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f826a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8332-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f83fa-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f84c2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8594-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f865c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f897c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8a62-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8b2a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8bf2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8cc4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8d82-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f8e4a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f91ba-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f928c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f9354-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f941c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f94e4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f95a2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f9912-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f9a0c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f9bd8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f9d54-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f9e76-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6f9fa2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fa092-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fa3f8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fa4e8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fa5ba-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fa678-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fa740-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fa7fe-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fab82-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fac7c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fb262-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fb3ac-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fb47e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fb546-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fb618-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fb9a6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fba8c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fbd98-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fbe9c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fbf6e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fc086-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fc27a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fc676-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fc766-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fc838-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fc996-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fcafe-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fcc52-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd058-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd17a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd24c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd30a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd3d2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd490-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd788-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd86e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fd940-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fda08-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fdac6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fdb8e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fdc4c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fdf62-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe034-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe0fc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe1c4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe28c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe354-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe6a6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe782-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe854-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fe9da-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6feaac-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6feb74-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6feeee-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fefde-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff0b0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff16e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff240-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff308-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff628-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff718-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff7d6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff89e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ff966-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ffa2e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ffaf6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6ffeb6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f6fffb0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700078-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700140-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700208-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7002d0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700398-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7006f4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7007e4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7008ac-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70096a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700a28-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700af0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700e38-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f700f32-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701086-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70116c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701234-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7012fc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7013ce-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7016da-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7017b6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701888-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701946-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701a0e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701ad6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701e00-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701ef0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f701fb8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f702076-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70213e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7021fc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7022c4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7025f8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7026e8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7027b0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70286e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f702936-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7029f4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f702d50-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f702e4a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f702f1c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703098-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703214-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703390-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7034da-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703a66-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703b9c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703c6e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703d36-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703dfe-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703ebc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f703f84-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704330-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704510-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704600-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7046d2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70479a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704858-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704c18-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704d12-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704dee-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704eb6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f704f7e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70503c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705104-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7053f2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7054d8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7055aa-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705672-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70573a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705802-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705b0e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705bf4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705cc6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705dde-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705eec-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f705fbe-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f706090-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7063ce-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7064b4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70657c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70664e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f706720-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7067e8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7068b0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f706bbc-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f706c8e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f706d56-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f706e1e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7079ea-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f707b66-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f707ed6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f707fd0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f708098-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70816a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f708232-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7082f0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7083c2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7087a0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70889a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70898a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f708a5c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f708b38-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f708c00-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f708cd2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7090b0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70918c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70925e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f709326-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7093ee-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f7094b6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f709876-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70997a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f709a4c-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f709b0a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f709bd2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f709c9a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f709d62-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a140-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a258-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a32a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a3f2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a4ba-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a582-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a654-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70a9d8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70aac8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70ab90-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70ad02-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70ade8-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70aeb0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70b220-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70b324-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70b3f6-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70b4be-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70b586-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70b64e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70b716-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70ba9a-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70bb76-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70bc3e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70bd10-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70bde2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70bea0-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70c1f2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70c2e2-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70c3b4-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70c486-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70c54e-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70c710-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70c800-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>9f70cb70-67a9-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>Required  ,V1</t>
+  </si>
+  <si>
+    <t>Range  ,V2</t>
+  </si>
+  <si>
+    <t>None  ,VT1</t>
+  </si>
+  <si>
+    <t>Numeric  ,VT2</t>
+  </si>
+  <si>
+    <t>Count  ,VT3</t>
+  </si>
+  <si>
+    <t>Range  ,V2,6206a2d0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>Voided</t>
+  </si>
+  <si>
+    <t>ConditionId</t>
+  </si>
+  <si>
+    <t>SubjectAttributeId</t>
+  </si>
+  <si>
+    <t>SelfQuestionId</t>
+  </si>
+  <si>
+    <t>RemoteQuestionId</t>
+  </si>
+  <si>
+    <t>ActionId</t>
+  </si>
+  <si>
+    <t>QuestionId</t>
   </si>
 </sst>
 </file>
@@ -811,20 +2303,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -872,6 +2384,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -887,23 +2402,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1151,12 +2649,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="P2:R5" totalsRowShown="0">
-  <autoFilter ref="P2:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q2:S5" totalsRowShown="0">
+  <autoFilter ref="Q2:S5"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id"/>
+    <tableColumn id="1" name="Id">
+      <calculatedColumnFormula>"VT"&amp;P3</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Ref" dataDxfId="6">
+    <tableColumn id="3" name="Ref" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1168,7 +2668,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:I4" totalsRowShown="0">
   <autoFilter ref="A2:I4"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Id" dataDxfId="5" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="6" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Qid"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="7" name="ResponseType"/>
@@ -1188,8 +2688,8 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="4">
-      <calculatedColumnFormula>Table6[[#This Row],[Name]]&amp;"  ,"&amp;Table6[[#This Row],[Id]]</calculatedColumnFormula>
+    <tableColumn id="3" name="Ref" dataDxfId="2">
+      <calculatedColumnFormula>Table6[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1202,8 +2702,8 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref">
-      <calculatedColumnFormula>Table8[Name]&amp;"  ,"&amp;Table8[Id]</calculatedColumnFormula>
+    <tableColumn id="3" name="Ref" dataDxfId="1">
+      <calculatedColumnFormula>Table8[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1216,8 +2716,8 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref">
-      <calculatedColumnFormula>Table811[Name]&amp;"  ,"&amp;Table811[Id]</calculatedColumnFormula>
+    <tableColumn id="3" name="Ref" dataDxfId="0">
+      <calculatedColumnFormula>Table811[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1225,9 +2725,9 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:J4" totalsRowShown="0">
-  <autoFilter ref="A2:J4"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:K4" totalsRowShown="0">
+  <autoFilter ref="A2:K4"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Qid"/>
     <tableColumn id="3" name="Type"/>
@@ -1238,6 +2738,7 @@
     <tableColumn id="6" name="Group"/>
     <tableColumn id="10" name="Action"/>
     <tableColumn id="12" name="Content"/>
+    <tableColumn id="5" name="Voided"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1247,18 +2748,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table713" displayName="Table713" ref="A2:M8" totalsRowShown="0">
   <autoFilter ref="A2:M8"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="20" name="Qid"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="4" name="SubjectRef"/>
-    <tableColumn id="5" name="RefQId"/>
-    <tableColumn id="21" name="CheckRefQId"/>
-    <tableColumn id="7" name="RResponseType"/>
-    <tableColumn id="9" name="Response" dataDxfId="2" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="5" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="20" name="QuestionId"/>
+    <tableColumn id="2" name="ConditionId"/>
+    <tableColumn id="4" name="SubjectAttributeId"/>
+    <tableColumn id="5" name="RemoteQuestionId"/>
+    <tableColumn id="21" name="SelfQuestionId"/>
+    <tableColumn id="7" name="ResponseType"/>
+    <tableColumn id="9" name="Response" dataDxfId="4" dataCellStyle="Explanatory Text"/>
     <tableColumn id="8" name="ResponseComplex"/>
     <tableColumn id="6" name="Group"/>
-    <tableColumn id="15" name="Action"/>
-    <tableColumn id="17" name="Content" dataDxfId="1" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="15" name="ActionId"/>
+    <tableColumn id="17" name="Content" dataDxfId="3" dataCellStyle="Explanatory Text"/>
     <tableColumn id="18" name="AltContent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1294,7 +2795,7 @@
     <tableColumn id="4" name="Description"/>
     <tableColumn id="3" name="Rank"/>
     <tableColumn id="5" name="ModuleId"/>
-    <tableColumn id="6" name="Ref" dataDxfId="19">
+    <tableColumn id="6" name="Ref" dataDxfId="21">
       <calculatedColumnFormula>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1303,14 +2804,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="J2:N8" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="J2:N8" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="J2:N8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="17"/>
-    <tableColumn id="2" name="Question" dataDxfId="16"/>
-    <tableColumn id="5" name="Type" dataDxfId="15"/>
-    <tableColumn id="3" name="LookupId" dataDxfId="14"/>
-    <tableColumn id="4" name="Ref" dataDxfId="13">
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Question" dataDxfId="18"/>
+    <tableColumn id="5" name="Type" dataDxfId="17"/>
+    <tableColumn id="3" name="LookupId" dataDxfId="16"/>
+    <tableColumn id="4" name="Ref" dataDxfId="15">
       <calculatedColumnFormula>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1319,13 +2820,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="P2:R6" totalsRowShown="0">
-  <autoFilter ref="P2:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="Q2:S6" totalsRowShown="0">
+  <autoFilter ref="Q2:S6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="12">
-      <calculatedColumnFormula>Table2[[#This Row],[Name]]&amp;"  ,"&amp;Table2[[#This Row],[Id]]</calculatedColumnFormula>
+    <tableColumn id="3" name="Ref" dataDxfId="14">
+      <calculatedColumnFormula>Table2[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1339,7 +2840,7 @@
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Code"/>
     <tableColumn id="3" name="Display"/>
-    <tableColumn id="4" name="Ref" dataDxfId="11">
+    <tableColumn id="4" name="Ref" dataDxfId="13">
       <calculatedColumnFormula>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1353,7 +2854,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="5" name="Category"/>
-    <tableColumn id="2" name="Ref" dataDxfId="10">
+    <tableColumn id="2" name="Ref" dataDxfId="12">
       <calculatedColumnFormula>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1379,14 +2880,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:H10" totalsRowShown="0">
   <autoFilter ref="A2:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="9" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="11" dataCellStyle="Explanatory Text"/>
     <tableColumn id="3" name="QId"/>
     <tableColumn id="4" name="ValidatorId"/>
     <tableColumn id="5" name="ValidatorTypeId"/>
     <tableColumn id="2" name="Revision"/>
     <tableColumn id="7" name="Min"/>
     <tableColumn id="8" name="Max"/>
-    <tableColumn id="6" name="Ref" dataDxfId="0">
+    <tableColumn id="6" name="Ref" dataDxfId="10">
       <calculatedColumnFormula>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1398,10 +2899,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="K2:N4" totalsRowShown="0">
   <autoFilter ref="K2:N4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="8" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="9" dataCellStyle="Explanatory Text">
+      <calculatedColumnFormula>"V"&amp;J3</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" name="Type"/>
     <tableColumn id="3" name="Rank"/>
-    <tableColumn id="4" name="Ref" dataDxfId="7">
+    <tableColumn id="4" name="Ref" dataDxfId="8">
       <calculatedColumnFormula>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1723,29 +3226,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1753,13 +3256,13 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1770,32 +3273,32 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="A8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,19 +3306,19 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -1827,19 +3330,19 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -1866,10 +3369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,37 +3386,37 @@
     <col min="7" max="7" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="J1" s="14" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="J1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="Q1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="P1" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>25</v>
@@ -1922,13 +3425,13 @@
         <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -1937,27 +3440,27 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1969,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;"."&amp;D3&amp;"  ,"&amp;A3</f>
@@ -1982,32 +3485,34 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Consent  ,00c2a60a-6246-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="str">
-        <f>Table2[[#This Row],[Name]]&amp;"  ,"&amp;Table2[[#This Row],[Id]]</f>
-        <v>Single  ,1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="str">
+        <f>Table2[[#This Row],[Id]]</f>
+        <v>Single</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -2019,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">C4&amp;"."&amp;D4&amp;"  ,"&amp;A4</f>
@@ -2032,32 +3537,34 @@
         <v>4</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Result  ,00c2aa06-6246-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" t="s">
         <v>29</v>
       </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4" t="str">
-        <f>Table2[[#This Row],[Name]]&amp;"  ,"&amp;Table2[[#This Row],[Id]]</f>
-        <v>Numeric  ,2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="str">
+        <f>Table2[[#This Row],[Id]]</f>
+        <v>Numeric</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -2069,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -2082,30 +3589,32 @@
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>No of Kits  ,00c2b14a-6246-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5" t="str">
-        <f>Table2[[#This Row],[Name]]&amp;"  ,"&amp;Table2[[#This Row],[Id]]</f>
-        <v>Multi  ,3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="str">
+        <f>Table2[[#This Row],[Id]]</f>
+        <v>Multi</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -2117,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -2130,32 +3639,34 @@
         <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N6" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Referall  ,00c2b23a-6246-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6" t="str">
-        <f>Table2[[#This Row],[Name]]&amp;"  ,"&amp;Table2[[#This Row],[Id]]</f>
-        <v>Text  ,4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="str">
+        <f>Table2[[#This Row],[Id]]</f>
+        <v>Text</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
@@ -2167,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -2180,22 +3691,24 @@
         <v>87</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N7" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Discordant  ,6203cad8-6260-11e7-907b-a6006ad3dba0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="10">
         <v>6</v>
@@ -2207,7 +3720,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2220,18 +3733,20 @@
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12" t="str">
         <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Remarks  ,00c2b550-6246-11e7-907b-a6006ad3dba0</v>
       </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="4">
@@ -2258,10 +3773,2528 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,33 +6316,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="C1" s="11"/>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -2318,10 +6351,10 @@
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
@@ -2330,7 +6363,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2338,17 +6371,17 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>YesNo  ,62040a3e-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
         <v>91</v>
@@ -2385,10 +6418,10 @@
         <v>Result  ,62040b24-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
         <v>91</v>
@@ -2418,17 +6451,17 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>Services  ,62040c00-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
         <v>91</v>
@@ -2443,10 +6476,10 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O5" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -2455,10 +6488,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
         <v>91</v>
@@ -2473,10 +6506,10 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O6" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -2485,10 +6518,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
         <v>91</v>
@@ -2503,10 +6536,10 @@
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O7" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -2515,10 +6548,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
         <v>91</v>
@@ -2545,10 +6578,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
         <v>91</v>
@@ -2575,10 +6608,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
@@ -2605,10 +6638,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
         <v>91</v>
@@ -2654,12 +6687,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,40 +6709,41 @@
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="K1" s="14" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="P1" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L1" s="16"/>
+      <c r="Q1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>76</v>
@@ -2718,10 +6752,10 @@
         <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
@@ -2730,40 +6764,44 @@
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="S2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>668</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="H3" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;"  ,"&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,1  ,62069a60-6260-11e7-907b-a6006ad3dba0</v>
-      </c>
-      <c r="K3" s="1">
+        <v>Required  ,V1  ,62069a60-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J3">
         <v>1</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>"V"&amp;J3</f>
+        <v>V1</v>
       </c>
       <c r="L3" t="s">
         <v>38</v>
@@ -2773,41 +6811,49 @@
       </c>
       <c r="N3" t="str">
         <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
-        <v>Required  ,1</v>
+        <v>Required  ,V1</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>"VT"&amp;P3</f>
+        <v>VT1</v>
+      </c>
+      <c r="R3" t="s">
         <v>82</v>
       </c>
-      <c r="R3" t="str">
+      <c r="S3" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
-        <v>None  ,0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>None  ,VT1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>668</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,1,62069b3c-6260-11e7-907b-a6006ad3dba0</v>
-      </c>
-      <c r="K4" s="1">
+        <v>Required  ,V1,62069b3c-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J4">
         <v>2</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"V"&amp;J4</f>
+        <v>V2</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -2817,104 +6863,127 @@
       </c>
       <c r="N4" t="str">
         <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
-        <v>Range  ,2</v>
+        <v>Range  ,V2</v>
       </c>
       <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ref="Q4:Q5" si="0">"VT"&amp;P4</f>
+        <v>VT2</v>
+      </c>
+      <c r="R4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
-        <v>Numeric  ,1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>Numeric  ,VT2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>668</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="H5" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,1,62069fe2-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Required  ,V1,62069fe2-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="0"/>
+        <v>VT3</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="16" t="str">
+      <c r="S5" s="15" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
-        <v>Count  ,2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>Count  ,VT3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>668</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,1,6206a10e-6260-11e7-907b-a6006ad3dba0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>Required  ,V1,6206a10e-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>666</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>668</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="H7" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,1,6206a1f4-6260-11e7-907b-a6006ad3dba0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>Required  ,V1,6206a1f4-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>667</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>669</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2927,21 +6996,27 @@
       </c>
       <c r="H8" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Range  ,2,6206a2d0-6260-11e7-907b-a6006ad3dba0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>Range  ,V2,6206a2d0-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>667</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>670</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2951,21 +7026,27 @@
       </c>
       <c r="H9" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Range  ,2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>Range  ,V2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>669</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2978,13 +7059,115 @@
       </c>
       <c r="H10" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Range  ,2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Range  ,V2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <dataValidations count="3">
@@ -3007,12 +7190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,17 +7213,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -3052,16 +7235,16 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
@@ -3070,7 +7253,7 @@
         <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -3078,52 +7261,52 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -3131,101 +7314,113 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L4" t="s">
         <v>80</v>
       </c>
-      <c r="M4">
-        <v>0</v>
+      <c r="M4" t="s">
+        <v>80</v>
       </c>
       <c r="N4" t="str">
-        <f>Table6[[#This Row],[Name]]&amp;"  ,"&amp;Table6[[#This Row],[Id]]</f>
-        <v>Post  ,0</v>
+        <f>Table6[[#This Row],[Id]]</f>
+        <v>Post</v>
       </c>
       <c r="P4" t="s">
         <v>82</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
+      <c r="Q4" t="s">
+        <v>82</v>
       </c>
       <c r="R4" t="str">
-        <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
-        <v>None  ,0</v>
+        <f>Table8[Id]</f>
+        <v>None</v>
       </c>
       <c r="T4" t="s">
         <v>89</v>
       </c>
-      <c r="U4">
-        <v>0</v>
+      <c r="U4" t="s">
+        <v>89</v>
       </c>
       <c r="V4" t="str">
-        <f>Table811[Name]&amp;"  ,"&amp;Table811[Id]</f>
-        <v>Partner  ,0</v>
+        <f>Table811[Id]</f>
+        <v>Partner</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="M5" t="s">
+        <v>86</v>
       </c>
       <c r="N5" t="str">
-        <f>Table6[[#This Row],[Name]]&amp;"  ,"&amp;Table6[[#This Row],[Id]]</f>
-        <v>Pre  ,1</v>
+        <f>Table6[[#This Row],[Id]]</f>
+        <v>Pre</v>
       </c>
       <c r="P5" t="s">
         <v>85</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
+      <c r="Q5" t="s">
+        <v>85</v>
       </c>
       <c r="R5" t="str">
-        <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
-        <v>Rng  ,1</v>
+        <f>Table8[Id]</f>
+        <v>Rng</v>
+      </c>
+      <c r="V5">
+        <f>Table811[Id]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P6" t="s">
         <v>84</v>
       </c>
-      <c r="Q6">
-        <v>2</v>
+      <c r="Q6" t="s">
+        <v>84</v>
       </c>
       <c r="R6" t="str">
-        <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
-        <v>Rm  ,2</v>
+        <f>Table8[Id]</f>
+        <v>Rm</v>
+      </c>
+      <c r="V6">
+        <f>Table811[Id]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P7" t="s">
         <v>90</v>
       </c>
-      <c r="Q7">
-        <v>3</v>
+      <c r="Q7" t="s">
+        <v>90</v>
       </c>
       <c r="R7" t="str">
-        <f>Table8[Name]&amp;"  ,"&amp;Table8[Id]</f>
-        <v>Set  ,3</v>
+        <f>Table8[Id]</f>
+        <v>Set</v>
+      </c>
+      <c r="V7">
+        <f>Table811[Id]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3248,21 +7443,22 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F4"/>
+      <selection activeCell="A2" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,18 +7473,18 @@
     <col min="10" max="10" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -3300,71 +7496,80 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3392,79 +7597,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="46.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>678</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>674</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>676</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>675</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>677</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3472,29 +7677,32 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>91</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="N3" t="s">
-        <v>91</v>
+      <c r="N3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3502,32 +7710,32 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>91</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="N4" t="s">
-        <v>91</v>
+      <c r="N4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -3535,22 +7743,28 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3558,37 +7772,37 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" t="s">
         <v>118</v>
       </c>
-      <c r="M6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
+      <c r="N6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3596,25 +7810,28 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3622,37 +7839,37 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="s">
         <v>118</v>
       </c>
-      <c r="M8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
+      <c r="N8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3663,7 +7880,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K8">
       <formula1>Actions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L8 M5:M8 H3:J8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:M8 H3:I8">
       <formula1>ItemIds</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D8">
@@ -3684,12 +7901,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,14 +7923,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -3728,19 +7945,19 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3748,25 +7965,25 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Modules &amp; Forms" sheetId="10" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="680">
   <si>
     <t>Consent</t>
   </si>
@@ -443,9 +443,6 @@
     <t>CCC  ,00c2b3c0-6246-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>Counselling  ,00c2b488-6246-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
     <t>Compulsory  ,00c2b488-6246-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
@@ -2106,6 +2103,12 @@
   </si>
   <si>
     <t>QuestionId</t>
+  </si>
+  <si>
+    <t>00c2b4f8-6246-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>Counselling  ,00c2b4f8-6246-11e7-907b-a6006ad3dba0</t>
   </si>
 </sst>
 </file>
@@ -2316,15 +2319,6 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2365,6 +2359,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2688,7 +2691,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="2">
+    <tableColumn id="3" name="Ref" dataDxfId="5">
       <calculatedColumnFormula>Table6[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2702,7 +2705,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="1">
+    <tableColumn id="3" name="Ref" dataDxfId="4">
       <calculatedColumnFormula>Table8[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2716,7 +2719,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="0">
+    <tableColumn id="3" name="Ref" dataDxfId="3">
       <calculatedColumnFormula>Table811[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2748,18 +2751,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table713" displayName="Table713" ref="A2:M8" totalsRowShown="0">
   <autoFilter ref="A2:M8"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="5" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Explanatory Text"/>
     <tableColumn id="20" name="QuestionId"/>
     <tableColumn id="2" name="ConditionId"/>
     <tableColumn id="4" name="SubjectAttributeId"/>
     <tableColumn id="5" name="RemoteQuestionId"/>
     <tableColumn id="21" name="SelfQuestionId"/>
     <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="9" name="Response" dataDxfId="4" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="Response" dataDxfId="1" dataCellStyle="Explanatory Text"/>
     <tableColumn id="8" name="ResponseComplex"/>
     <tableColumn id="6" name="Group"/>
     <tableColumn id="15" name="ActionId"/>
-    <tableColumn id="17" name="Content" dataDxfId="3" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="17" name="Content" dataDxfId="0" dataCellStyle="Explanatory Text"/>
     <tableColumn id="18" name="AltContent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3242,7 +3245,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -3289,7 +3292,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -3396,15 +3399,15 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="16"/>
       <c r="J1" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="16"/>
       <c r="Q1" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R1" s="16"/>
     </row>
@@ -3413,10 +3416,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>25</v>
@@ -3425,7 +3428,7 @@
         <v>32</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>108</v>
@@ -3440,7 +3443,7 @@
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" t="s">
         <v>108</v>
@@ -3460,7 +3463,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3472,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;"."&amp;D3&amp;"  ,"&amp;A3</f>
@@ -3512,7 +3515,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -3524,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">C4&amp;"."&amp;D4&amp;"  ,"&amp;A4</f>
@@ -3564,7 +3567,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -3576,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -3614,7 +3617,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3626,7 +3629,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -3666,7 +3669,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
@@ -3678,7 +3681,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3708,7 +3711,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="10">
         <v>6</v>
@@ -3720,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3786,2502 +3789,2502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -6293,8 +6296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6611,7 +6614,7 @@
         <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>679</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
@@ -6623,7 +6626,7 @@
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>678</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -6633,7 +6636,7 @@
       </c>
       <c r="O10" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
-        <v>Counselling  ,00c2b488-6246-11e7-907b-a6006ad3dba0</v>
+        <v>Counselling  ,00c2b4f8-6246-11e7-907b-a6006ad3dba0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -6641,7 +6644,7 @@
         <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
         <v>91</v>
@@ -6691,7 +6694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -6717,7 +6720,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="16"/>
       <c r="K1" s="16" t="s">
@@ -6725,7 +6728,7 @@
       </c>
       <c r="L1" s="16"/>
       <c r="Q1" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R1" s="16"/>
     </row>
@@ -6737,13 +6740,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>76</v>
@@ -6781,13 +6784,13 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6833,13 +6836,13 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6885,13 +6888,13 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6923,13 +6926,13 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6950,13 +6953,13 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6977,13 +6980,13 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7010,13 +7013,13 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7040,13 +7043,13 @@
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7214,7 +7217,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -7223,7 +7226,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -7235,16 +7238,16 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" t="s">
-        <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
@@ -7253,7 +7256,7 @@
         <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -7261,7 +7264,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -7279,7 +7282,7 @@
         <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
         <v>105</v>
@@ -7314,7 +7317,7 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -7332,7 +7335,7 @@
         <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L4" t="s">
         <v>80</v>
@@ -7475,7 +7478,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -7484,7 +7487,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -7496,22 +7499,22 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
         <v>160</v>
-      </c>
-      <c r="H2" t="s">
-        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7519,13 +7522,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -7534,7 +7537,7 @@
         <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
         <v>122</v>
@@ -7548,13 +7551,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -7563,7 +7566,7 @@
         <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
         <v>123</v>
@@ -7601,7 +7604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -7624,7 +7627,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -7633,43 +7636,43 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D2" t="s">
         <v>673</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" t="s">
         <v>674</v>
-      </c>
-      <c r="E2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F2" t="s">
-        <v>675</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" t="s">
+        <v>676</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" t="s">
-        <v>677</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" t="s">
-        <v>163</v>
-      </c>
       <c r="N2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7677,7 +7680,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
@@ -7686,7 +7689,7 @@
         <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
@@ -7710,7 +7713,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -7719,7 +7722,7 @@
         <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
@@ -7743,7 +7746,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -7752,7 +7755,7 @@
         <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -7772,7 +7775,7 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -7781,7 +7784,7 @@
         <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -7810,7 +7813,7 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -7819,7 +7822,7 @@
         <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -7839,7 +7842,7 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -7848,7 +7851,7 @@
         <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
@@ -7924,7 +7927,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -7945,19 +7948,19 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
         <v>160</v>
-      </c>
-      <c r="H2" t="s">
-        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7965,13 +7968,13 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -7983,7 +7986,7 @@
         <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" Modules &amp; Forms" sheetId="10" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Conditions">Table6[Name]</definedName>
     <definedName name="CondTypes" localSheetId="7">Table6[Ref]</definedName>
     <definedName name="CondTypes">Table6[Ref]</definedName>
-    <definedName name="CTypeIds">'Concepts &amp; Questionniare'!$Q$3:$Q$6</definedName>
+    <definedName name="CTypeIds">'Concepts &amp; Questionniare'!$R$3:$R$6</definedName>
     <definedName name="CTypeIds2" localSheetId="7">Table2[Name]</definedName>
     <definedName name="CTypeIds2">Table2[Name]</definedName>
     <definedName name="CTypeIds22" localSheetId="7">Table2[Ref]</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="679">
   <si>
     <t>Consent</t>
   </si>
@@ -140,9 +140,6 @@
     <t>00c2b550-6246-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
     <t>QId</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>FormId</t>
   </si>
   <si>
-    <t>LookupId</t>
-  </si>
-  <si>
     <t>Concept Types</t>
   </si>
   <si>
@@ -2109,6 +2103,9 @@
   </si>
   <si>
     <t>Counselling  ,00c2b4f8-6246-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>ConceptTypeId</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2314,31 @@
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2659,7 +2680,7 @@
       <calculatedColumnFormula>"VT"&amp;P3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Ref" dataDxfId="7">
+    <tableColumn id="3" name="Ref" dataDxfId="8">
       <calculatedColumnFormula>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2671,7 +2692,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:I4" totalsRowShown="0">
   <autoFilter ref="A2:I4"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Id" dataDxfId="6" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="7" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Qid"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="7" name="ResponseType"/>
@@ -2691,7 +2712,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="5">
+    <tableColumn id="3" name="Ref" dataDxfId="6">
       <calculatedColumnFormula>Table6[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2705,7 +2726,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="4">
+    <tableColumn id="3" name="Ref" dataDxfId="5">
       <calculatedColumnFormula>Table8[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2719,7 +2740,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="3">
+    <tableColumn id="3" name="Ref" dataDxfId="4">
       <calculatedColumnFormula>Table811[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2751,18 +2772,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table713" displayName="Table713" ref="A2:M8" totalsRowShown="0">
   <autoFilter ref="A2:M8"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Explanatory Text"/>
     <tableColumn id="20" name="QuestionId"/>
     <tableColumn id="2" name="ConditionId"/>
     <tableColumn id="4" name="SubjectAttributeId"/>
     <tableColumn id="5" name="RemoteQuestionId"/>
     <tableColumn id="21" name="SelfQuestionId"/>
     <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="9" name="Response" dataDxfId="1" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="Response" dataDxfId="2" dataCellStyle="Explanatory Text"/>
     <tableColumn id="8" name="ResponseComplex"/>
     <tableColumn id="6" name="Group"/>
     <tableColumn id="15" name="ActionId"/>
-    <tableColumn id="17" name="Content" dataDxfId="0" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="17" name="Content" dataDxfId="1" dataCellStyle="Explanatory Text"/>
     <tableColumn id="18" name="AltContent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2798,7 +2819,7 @@
     <tableColumn id="4" name="Description"/>
     <tableColumn id="3" name="Rank"/>
     <tableColumn id="5" name="ModuleId"/>
-    <tableColumn id="6" name="Ref" dataDxfId="21">
+    <tableColumn id="6" name="Ref" dataDxfId="22">
       <calculatedColumnFormula>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2807,15 +2828,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="J2:N8" totalsRowShown="0" dataDxfId="20">
-  <autoFilter ref="J2:N8"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" name="Question" dataDxfId="18"/>
-    <tableColumn id="5" name="Type" dataDxfId="17"/>
-    <tableColumn id="3" name="LookupId" dataDxfId="16"/>
-    <tableColumn id="4" name="Ref" dataDxfId="15">
-      <calculatedColumnFormula>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="J2:O8" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="J2:O8"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Id" dataDxfId="20"/>
+    <tableColumn id="2" name="Name" dataDxfId="19"/>
+    <tableColumn id="5" name="ConceptTypeId" dataDxfId="18"/>
+    <tableColumn id="3" name="CategoryId" dataDxfId="17"/>
+    <tableColumn id="6" name="Voided" dataDxfId="0"/>
+    <tableColumn id="4" name="Ref" dataDxfId="16">
+      <calculatedColumnFormula>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2823,12 +2845,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="Q2:S6" totalsRowShown="0">
-  <autoFilter ref="Q2:S6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="R2:T6" totalsRowShown="0">
+  <autoFilter ref="R2:T6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="14">
+    <tableColumn id="3" name="Ref" dataDxfId="15">
       <calculatedColumnFormula>Table2[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2843,7 +2865,7 @@
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Code"/>
     <tableColumn id="3" name="Display"/>
-    <tableColumn id="4" name="Ref" dataDxfId="13">
+    <tableColumn id="4" name="Ref" dataDxfId="14">
       <calculatedColumnFormula>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2857,7 +2879,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="5" name="Category"/>
-    <tableColumn id="2" name="Ref" dataDxfId="12">
+    <tableColumn id="2" name="Ref" dataDxfId="13">
       <calculatedColumnFormula>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2883,14 +2905,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:H10" totalsRowShown="0">
   <autoFilter ref="A2:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="11" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="12" dataCellStyle="Explanatory Text"/>
     <tableColumn id="3" name="QId"/>
     <tableColumn id="4" name="ValidatorId"/>
     <tableColumn id="5" name="ValidatorTypeId"/>
     <tableColumn id="2" name="Revision"/>
     <tableColumn id="7" name="Min"/>
     <tableColumn id="8" name="Max"/>
-    <tableColumn id="6" name="Ref" dataDxfId="10">
+    <tableColumn id="6" name="Ref" dataDxfId="11">
       <calculatedColumnFormula>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2902,12 +2924,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="K2:N4" totalsRowShown="0">
   <autoFilter ref="K2:N4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="9" dataCellStyle="Explanatory Text">
+    <tableColumn id="1" name="Id" dataDxfId="10" dataCellStyle="Explanatory Text">
       <calculatedColumnFormula>"V"&amp;J3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Type"/>
     <tableColumn id="3" name="Rank"/>
-    <tableColumn id="4" name="Ref" dataDxfId="8">
+    <tableColumn id="4" name="Ref" dataDxfId="9">
       <calculatedColumnFormula>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3230,42 +3252,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3277,51 +3299,51 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G10" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3330,22 +3352,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3372,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,79 +3413,83 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.42578125" customWidth="1"/>
+    <col min="15" max="15" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="16"/>
       <c r="J1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="R1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" t="s">
+        <v>678</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" t="s">
+        <v>669</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="Q1" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3475,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;"."&amp;D3&amp;"  ,"&amp;A3</f>
@@ -3488,34 +3514,37 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
+        <v>112</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Consent  ,00c2a60a-6246-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q3" s="12"/>
       <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="str">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="str">
         <f>Table2[[#This Row],[Id]]</f>
         <v>Single</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -3527,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">C4&amp;"."&amp;D4&amp;"  ,"&amp;A4</f>
@@ -3540,34 +3569,37 @@
         <v>4</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="str">
+        <f>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
+        <v>Result  ,00c2aa06-6246-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
-        <v>Result  ,00c2aa06-6246-11e7-907b-a6006ad3dba0</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="str">
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="str">
         <f>Table2[[#This Row],[Id]]</f>
         <v>Numeric</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -3579,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -3592,32 +3624,35 @@
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
+        <v>No of Kits  ,00c2b14a-6246-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="str">
-        <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
-        <v>No of Kits  ,00c2b14a-6246-11e7-907b-a6006ad3dba0</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" t="str">
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="str">
         <f>Table2[[#This Row],[Id]]</f>
         <v>Multi</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3629,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -3642,76 +3677,82 @@
         <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
+        <v>Referall  ,00c2b23a-6246-11e7-907b-a6006ad3dba0</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
-        <v>Referall  ,00c2b23a-6246-11e7-907b-a6006ad3dba0</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" t="str">
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="str">
         <f>Table2[[#This Row],[Id]]</f>
         <v>Text</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>5.Discordant  ,6206acf8-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
+        <v>112</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Discordant  ,6203cad8-6260-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="10">
         <v>6</v>
@@ -3723,7 +3764,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3736,20 +3777,23 @@
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="12"/>
-      <c r="N8" s="12" t="str">
-        <f>Table20[[#This Row],[Question]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</f>
         <v>Remarks  ,00c2b550-6246-11e7-907b-a6006ad3dba0</v>
       </c>
-      <c r="O8" s="12"/>
       <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="4">
@@ -3789,2502 +3833,2502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -6296,7 +6340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -6320,80 +6364,80 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="11"/>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>YesNo  ,62040a3e-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -6411,7 +6455,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -6421,19 +6465,19 @@
         <v>Result  ,62040b24-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -6451,38 +6495,38 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>Services  ,62040c00-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6491,28 +6535,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O6" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6521,28 +6565,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O7" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6551,19 +6595,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -6581,19 +6625,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -6611,22 +6655,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -6641,28 +6685,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6720,77 +6764,77 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="16"/>
       <c r="K1" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="16"/>
       <c r="Q1" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" t="s">
         <v>665</v>
-      </c>
-      <c r="D3" t="s">
-        <v>667</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6807,7 +6851,7 @@
         <v>V1</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -6824,7 +6868,7 @@
         <v>VT1</v>
       </c>
       <c r="R3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S3" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
@@ -6833,16 +6877,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" t="s">
         <v>665</v>
-      </c>
-      <c r="D4" t="s">
-        <v>667</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6859,7 +6903,7 @@
         <v>V2</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -6876,7 +6920,7 @@
         <v>VT2</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
@@ -6885,16 +6929,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D5" t="s">
         <v>665</v>
-      </c>
-      <c r="D5" t="s">
-        <v>667</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6914,7 +6958,7 @@
         <v>VT3</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S5" s="15" t="str">
         <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
@@ -6923,16 +6967,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D6" t="s">
         <v>665</v>
-      </c>
-      <c r="D6" t="s">
-        <v>667</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6950,16 +6994,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D7" t="s">
         <v>665</v>
-      </c>
-      <c r="D7" t="s">
-        <v>667</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6977,16 +7021,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
+        <v>664</v>
+      </c>
+      <c r="D8" t="s">
         <v>666</v>
-      </c>
-      <c r="D8" t="s">
-        <v>668</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7010,16 +7054,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7040,16 +7084,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
+        <v>664</v>
+      </c>
+      <c r="D10" t="s">
         <v>666</v>
-      </c>
-      <c r="D10" t="s">
-        <v>668</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7217,151 +7261,151 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Post</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R4" t="str">
         <f>Table8[Id]</f>
         <v>None</v>
       </c>
       <c r="T4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V4" t="str">
         <f>Table811[Id]</f>
@@ -7370,20 +7414,20 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Pre</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R5" t="str">
         <f>Table8[Id]</f>
@@ -7396,10 +7440,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R6" t="str">
         <f>Table8[Id]</f>
@@ -7412,10 +7456,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R7" t="str">
         <f>Table8[Id]</f>
@@ -7478,69 +7522,69 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7548,28 +7592,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7627,81 +7671,81 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" t="s">
         <v>672</v>
       </c>
-      <c r="D2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
         <v>674</v>
       </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" t="s">
         <v>160</v>
       </c>
-      <c r="K2" t="s">
-        <v>676</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" t="s">
-        <v>162</v>
-      </c>
       <c r="N2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3">
@@ -7710,31 +7754,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4">
@@ -7743,25 +7787,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -7772,37 +7816,37 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" t="s">
         <v>117</v>
-      </c>
-      <c r="M6" t="s">
-        <v>118</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -7810,25 +7854,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -7839,37 +7883,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="s">
         <v>117</v>
-      </c>
-      <c r="M8" t="s">
-        <v>118</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7927,66 +7971,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8505" tabRatio="678" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8100" tabRatio="678" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name=" Modules &amp; Forms" sheetId="10" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="673">
   <si>
     <t>Consent</t>
   </si>
@@ -140,9 +140,6 @@
     <t>00c2b550-6246-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>QId</t>
-  </si>
-  <si>
     <t>Display</t>
   </si>
   <si>
@@ -2060,24 +2057,6 @@
     <t>9f70cb70-67a9-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>Required  ,V1</t>
-  </si>
-  <si>
-    <t>Range  ,V2</t>
-  </si>
-  <si>
-    <t>None  ,VT1</t>
-  </si>
-  <si>
-    <t>Numeric  ,VT2</t>
-  </si>
-  <si>
-    <t>Count  ,VT3</t>
-  </si>
-  <si>
-    <t>Range  ,V2,6206a2d0-6260-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
     <t>Voided</t>
   </si>
   <si>
@@ -2106,6 +2085,9 @@
   </si>
   <si>
     <t>ConceptTypeId</t>
+  </si>
+  <si>
+    <t>Range,6206a2d0-6260-11e7-907b-a6006ad3dba0</t>
   </si>
 </sst>
 </file>
@@ -2316,6 +2298,12 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2403,12 +2391,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2676,12 +2658,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="Q2:S5" totalsRowShown="0">
   <autoFilter ref="Q2:S5"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id">
-      <calculatedColumnFormula>"VT"&amp;P3</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Ref" dataDxfId="8">
-      <calculatedColumnFormula>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</calculatedColumnFormula>
+    <tableColumn id="3" name="Ref" dataDxfId="0">
+      <calculatedColumnFormula>Table4[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2692,7 +2672,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:I4" totalsRowShown="0">
   <autoFilter ref="A2:I4"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Id" dataDxfId="7" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="9" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Qid"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="7" name="ResponseType"/>
@@ -2712,7 +2692,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="6">
+    <tableColumn id="3" name="Ref" dataDxfId="8">
       <calculatedColumnFormula>Table6[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2726,7 +2706,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="5">
+    <tableColumn id="3" name="Ref" dataDxfId="7">
       <calculatedColumnFormula>Table8[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2740,7 +2720,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="4">
+    <tableColumn id="3" name="Ref" dataDxfId="6">
       <calculatedColumnFormula>Table811[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2772,18 +2752,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table713" displayName="Table713" ref="A2:M8" totalsRowShown="0">
   <autoFilter ref="A2:M8"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="3" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="5" dataCellStyle="Explanatory Text"/>
     <tableColumn id="20" name="QuestionId"/>
     <tableColumn id="2" name="ConditionId"/>
     <tableColumn id="4" name="SubjectAttributeId"/>
     <tableColumn id="5" name="RemoteQuestionId"/>
     <tableColumn id="21" name="SelfQuestionId"/>
     <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="9" name="Response" dataDxfId="2" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="Response" dataDxfId="4" dataCellStyle="Explanatory Text"/>
     <tableColumn id="8" name="ResponseComplex"/>
     <tableColumn id="6" name="Group"/>
     <tableColumn id="15" name="ActionId"/>
-    <tableColumn id="17" name="Content" dataDxfId="1" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="17" name="Content" dataDxfId="3" dataCellStyle="Explanatory Text"/>
     <tableColumn id="18" name="AltContent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2835,7 +2815,7 @@
     <tableColumn id="2" name="Name" dataDxfId="19"/>
     <tableColumn id="5" name="ConceptTypeId" dataDxfId="18"/>
     <tableColumn id="3" name="CategoryId" dataDxfId="17"/>
-    <tableColumn id="6" name="Voided" dataDxfId="0"/>
+    <tableColumn id="6" name="Voided" dataDxfId="2"/>
     <tableColumn id="4" name="Ref" dataDxfId="16">
       <calculatedColumnFormula>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
@@ -2906,7 +2886,7 @@
   <autoFilter ref="A2:H10"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Id" dataDxfId="12" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="3" name="QId"/>
+    <tableColumn id="3" name="QuestionId"/>
     <tableColumn id="4" name="ValidatorId"/>
     <tableColumn id="5" name="ValidatorTypeId"/>
     <tableColumn id="2" name="Revision"/>
@@ -2924,13 +2904,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="K2:N4" totalsRowShown="0">
   <autoFilter ref="K2:N4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="10" dataCellStyle="Explanatory Text">
-      <calculatedColumnFormula>"V"&amp;J3</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Id" dataDxfId="10" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Type"/>
     <tableColumn id="3" name="Rank"/>
-    <tableColumn id="4" name="Ref" dataDxfId="9">
-      <calculatedColumnFormula>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</calculatedColumnFormula>
+    <tableColumn id="4" name="Ref" dataDxfId="1">
+      <calculatedColumnFormula>Table9[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3252,42 +3230,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3299,51 +3277,51 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3352,22 +3330,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3396,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,74 +3400,74 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="16"/>
       <c r="J1" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K1" s="16"/>
       <c r="R1" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3501,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;"."&amp;D3&amp;"  ,"&amp;A3</f>
@@ -3514,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3529,10 +3507,10 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T3" t="str">
         <f>Table2[[#This Row],[Id]]</f>
@@ -3541,10 +3519,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -3556,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">C4&amp;"."&amp;D4&amp;"  ,"&amp;A4</f>
@@ -3569,10 +3547,10 @@
         <v>4</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3584,10 +3562,10 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T4" t="str">
         <f>Table2[[#This Row],[Id]]</f>
@@ -3596,10 +3574,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -3611,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -3624,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5">
@@ -3637,10 +3615,10 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T5" t="str">
         <f>Table2[[#This Row],[Id]]</f>
@@ -3649,10 +3627,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3664,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -3677,10 +3655,10 @@
         <v>6</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3692,10 +3670,10 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T6" t="str">
         <f>Table2[[#This Row],[Id]]</f>
@@ -3704,38 +3682,38 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>5.Discordant  ,6206acf8-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3749,10 +3727,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="10">
         <v>6</v>
@@ -3764,7 +3742,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3777,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8">
@@ -3833,2502 +3811,2502 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -6364,80 +6342,80 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="11"/>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>YesNo  ,62040a3e-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -6455,7 +6433,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -6465,19 +6443,19 @@
         <v>Result  ,62040b24-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -6495,38 +6473,38 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>Services  ,62040c00-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O5" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6535,28 +6513,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6565,28 +6543,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O7" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6595,19 +6573,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -6625,19 +6603,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -6655,22 +6633,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -6685,28 +6663,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6739,7 +6717,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,200 +6730,195 @@
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="16"/>
       <c r="K1" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="16"/>
       <c r="Q1" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>668</v>
       </c>
       <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="H3" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;"  ,"&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,V1  ,62069a60-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Required  ,62069a60-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="str">
-        <f>"V"&amp;J3</f>
-        <v>V1</v>
+      <c r="K3" t="s">
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="str">
-        <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
-        <v>Required  ,V1</v>
+        <f>Table9[[#This Row],[Id]]</f>
+        <v>Required</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" t="str">
-        <f>"VT"&amp;P3</f>
-        <v>VT1</v>
+      <c r="Q3" t="s">
+        <v>80</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" t="str">
-        <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
-        <v>None  ,VT1</v>
+        <f>Table4[[#This Row],[Id]]</f>
+        <v>None</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>663</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,V1,62069b3c-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Required,62069b3c-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="str">
-        <f>"V"&amp;J4</f>
-        <v>V2</v>
+      <c r="K4" t="s">
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="str">
-        <f>Table9[[#This Row],[Type]]&amp;"  ,"&amp;Table9[[#This Row],[Id]]</f>
-        <v>Range  ,V2</v>
+        <f>Table9[[#This Row],[Id]]</f>
+        <v>Range</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4" t="str">
-        <f t="shared" ref="Q4:Q5" si="0">"VT"&amp;P4</f>
-        <v>VT2</v>
+      <c r="Q4" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S4" t="str">
-        <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
-        <v>Numeric  ,VT2</v>
+        <f>Table4[[#This Row],[Id]]</f>
+        <v>Numeric</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>663</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="H5" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,V1,62069fe2-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Required,62069fe2-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -6953,37 +6926,36 @@
       <c r="P5">
         <v>3</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="0"/>
-        <v>VT3</v>
+      <c r="Q5" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S5" s="15" t="str">
-        <f>Table4[[#This Row],[Name]]&amp;"  ,"&amp;Table4[[#This Row],[Id]]</f>
-        <v>Count  ,VT3</v>
+        <f>Table4[[#This Row],[Id]]</f>
+        <v>Count</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>663</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,V1,6206a10e-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Required,6206a10e-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -6994,23 +6966,23 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>663</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="H7" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Required  ,V1,6206a1f4-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Required,6206a1f4-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -7021,16 +6993,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>664</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>666</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7043,7 +7015,7 @@
       </c>
       <c r="H8" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Range  ,V2,6206a2d0-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Range,6206a2d0-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -7054,16 +7026,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>664</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>667</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7073,7 +7045,7 @@
       </c>
       <c r="H9" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Range  ,V2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Range,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -7084,16 +7056,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>664</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>666</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7106,7 +7078,7 @@
       </c>
       <c r="H10" t="str">
         <f>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</f>
-        <v>Range  ,V2,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
+        <v>Range,6206a3a2-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="J10">
         <v>8</v>
@@ -7261,151 +7233,151 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>146</v>
-      </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Post</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R4" t="str">
         <f>Table8[Id]</f>
         <v>None</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V4" t="str">
         <f>Table811[Id]</f>
@@ -7414,20 +7386,20 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Pre</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R5" t="str">
         <f>Table8[Id]</f>
@@ -7440,10 +7412,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" t="str">
         <f>Table8[Id]</f>
@@ -7456,10 +7428,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R7" t="str">
         <f>Table8[Id]</f>
@@ -7522,69 +7494,69 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
         <v>157</v>
       </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
         <v>148</v>
       </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" t="s">
-        <v>149</v>
-      </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7592,28 +7564,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" t="s">
-        <v>149</v>
-      </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7671,81 +7643,81 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
+        <v>667</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" t="s">
-        <v>674</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M2" t="s">
-        <v>160</v>
-      </c>
       <c r="N2" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3">
@@ -7754,31 +7726,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4">
@@ -7787,25 +7759,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -7816,37 +7788,37 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s">
         <v>116</v>
-      </c>
-      <c r="M6" t="s">
-        <v>117</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -7854,25 +7826,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -7883,37 +7855,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" t="s">
         <v>116</v>
-      </c>
-      <c r="M8" t="s">
-        <v>117</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7952,8 +7924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7971,66 +7943,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" t="s">
         <v>157</v>
       </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8100" tabRatio="678" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8100" tabRatio="678" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name=" Modules &amp; Forms" sheetId="10" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="666">
   <si>
     <t>Consent</t>
   </si>
@@ -188,12 +188,6 @@
     <t>6203cad8-6260-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
-    <t>6203cc90-6260-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
-    <t>6203cd9e-6260-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
     <t>6203d8de-6260-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
@@ -557,18 +551,6 @@
     <t>QuestionValidationId</t>
   </si>
   <si>
-    <t>9f6e110a-67a9-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
-    <t>9f6e1416-67a9-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
-    <t>9f6e1560-67a9-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
-    <t>9f6e1646-67a9-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
     <t>9f6e1b46-67a9-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
@@ -585,9 +567,6 @@
   </si>
   <si>
     <t>9f6e1f9c-67a9-11e7-907b-a6006ad3dba0</t>
-  </si>
-  <si>
-    <t>9f6e2064-67a9-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
     <t>9f6e2492-67a9-11e7-907b-a6006ad3dba0</t>
@@ -2298,36 +2277,6 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2393,6 +2342,12 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2450,6 +2405,30 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="8" tint="0.79998168889431442"/>
@@ -2660,7 +2639,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Ref" dataDxfId="0">
+    <tableColumn id="3" name="Ref" dataDxfId="7">
       <calculatedColumnFormula>Table4[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2672,7 +2651,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:I4" totalsRowShown="0">
   <autoFilter ref="A2:I4"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Id" dataDxfId="9" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="6" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Qid"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="7" name="ResponseType"/>
@@ -2692,7 +2671,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="8">
+    <tableColumn id="3" name="Ref" dataDxfId="5">
       <calculatedColumnFormula>Table6[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2706,7 +2685,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="7">
+    <tableColumn id="3" name="Ref" dataDxfId="4">
       <calculatedColumnFormula>Table8[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2720,7 +2699,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="6">
+    <tableColumn id="3" name="Ref" dataDxfId="3">
       <calculatedColumnFormula>Table811[Id]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2749,21 +2728,21 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table713" displayName="Table713" ref="A2:M8" totalsRowShown="0">
-  <autoFilter ref="A2:M8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table713" displayName="Table713" ref="A2:M9" totalsRowShown="0">
+  <autoFilter ref="A2:M9"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Id" dataDxfId="5" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="2" dataCellStyle="Explanatory Text"/>
     <tableColumn id="20" name="QuestionId"/>
     <tableColumn id="2" name="ConditionId"/>
     <tableColumn id="4" name="SubjectAttributeId"/>
     <tableColumn id="5" name="RemoteQuestionId"/>
     <tableColumn id="21" name="SelfQuestionId"/>
     <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="9" name="Response" dataDxfId="4" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="9" name="Response" dataDxfId="1" dataCellStyle="Explanatory Text"/>
     <tableColumn id="8" name="ResponseComplex"/>
     <tableColumn id="6" name="Group"/>
     <tableColumn id="15" name="ActionId"/>
-    <tableColumn id="17" name="Content" dataDxfId="3" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="17" name="Content" dataDxfId="0" dataCellStyle="Explanatory Text"/>
     <tableColumn id="18" name="AltContent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2815,8 +2794,8 @@
     <tableColumn id="2" name="Name" dataDxfId="19"/>
     <tableColumn id="5" name="ConceptTypeId" dataDxfId="18"/>
     <tableColumn id="3" name="CategoryId" dataDxfId="17"/>
-    <tableColumn id="6" name="Voided" dataDxfId="2"/>
-    <tableColumn id="4" name="Ref" dataDxfId="16">
+    <tableColumn id="6" name="Voided" dataDxfId="16"/>
+    <tableColumn id="4" name="Ref" dataDxfId="15">
       <calculatedColumnFormula>Table20[[#This Row],[Name]]&amp;"  ,"&amp;Table20[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2830,7 +2809,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
-    <tableColumn id="3" name="Ref" dataDxfId="15">
+    <tableColumn id="3" name="Ref" dataDxfId="14">
       <calculatedColumnFormula>Table2[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2845,7 +2824,7 @@
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Code"/>
     <tableColumn id="3" name="Display"/>
-    <tableColumn id="4" name="Ref" dataDxfId="14">
+    <tableColumn id="4" name="Ref" dataDxfId="13">
       <calculatedColumnFormula>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2859,7 +2838,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="5" name="Category"/>
-    <tableColumn id="2" name="Ref" dataDxfId="13">
+    <tableColumn id="2" name="Ref" dataDxfId="12">
       <calculatedColumnFormula>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2885,14 +2864,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A2:H10" totalsRowShown="0">
   <autoFilter ref="A2:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Id" dataDxfId="12" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="11" dataCellStyle="Explanatory Text"/>
     <tableColumn id="3" name="QuestionId"/>
     <tableColumn id="4" name="ValidatorId"/>
     <tableColumn id="5" name="ValidatorTypeId"/>
     <tableColumn id="2" name="Revision"/>
     <tableColumn id="7" name="Min"/>
     <tableColumn id="8" name="Max"/>
-    <tableColumn id="6" name="Ref" dataDxfId="11">
+    <tableColumn id="6" name="Ref" dataDxfId="10">
       <calculatedColumnFormula>Table11[[#This Row],[ValidatorId]]&amp;","&amp;Table11[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2904,10 +2883,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="K2:N4" totalsRowShown="0">
   <autoFilter ref="K2:N4"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="10" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="1" name="Id" dataDxfId="9" dataCellStyle="Explanatory Text"/>
     <tableColumn id="2" name="Type"/>
     <tableColumn id="3" name="Rank"/>
-    <tableColumn id="4" name="Ref" dataDxfId="1">
+    <tableColumn id="4" name="Ref" dataDxfId="8">
       <calculatedColumnFormula>Table9[[#This Row],[Id]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3230,42 +3209,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3277,51 +3256,51 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3330,22 +3309,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3400,27 +3379,27 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="16"/>
       <c r="J1" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K1" s="16"/>
       <c r="R1" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>23</v>
@@ -3429,45 +3408,45 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="O2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3479,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;"."&amp;D3&amp;"  ,"&amp;A3</f>
@@ -3495,7 +3474,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3519,10 +3498,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -3534,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">C4&amp;"."&amp;D4&amp;"  ,"&amp;A4</f>
@@ -3550,7 +3529,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3574,10 +3553,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -3589,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -3627,10 +3606,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3642,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -3658,7 +3637,7 @@
         <v>28</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3682,22 +3661,22 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3707,13 +3686,13 @@
         <v>38</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3727,10 +3706,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="10">
         <v>6</v>
@@ -3742,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3798,10 +3777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A500"/>
+  <dimension ref="A12:A500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,2504 +3788,2449 @@
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6342,32 +6266,32 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="11"/>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -6376,10 +6300,10 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -6388,34 +6312,34 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>YesNo  ,62040a3e-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -6433,7 +6357,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -6443,19 +6367,19 @@
         <v>Result  ,62040b24-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -6473,38 +6397,38 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>Services  ,62040c00-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O5" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6513,28 +6437,28 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O6" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6543,28 +6467,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O7" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6573,19 +6497,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -6603,19 +6527,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
@@ -6633,22 +6557,22 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -6663,28 +6587,28 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O11" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6741,7 +6665,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="16"/>
       <c r="K1" s="16" t="s">
@@ -6749,37 +6673,37 @@
       </c>
       <c r="L1" s="16"/>
       <c r="Q1" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -6788,30 +6712,30 @@
         <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6840,10 +6764,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S3" t="str">
         <f>Table4[[#This Row],[Id]]</f>
@@ -6852,16 +6776,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6902,16 +6826,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6927,10 +6851,10 @@
         <v>3</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S5" s="15" t="str">
         <f>Table4[[#This Row],[Id]]</f>
@@ -6939,16 +6863,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6966,16 +6890,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6993,10 +6917,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -7026,16 +6950,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7056,10 +6980,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -7233,16 +7157,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -7251,133 +7175,133 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N4" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Post</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R4" t="str">
         <f>Table8[Id]</f>
         <v>None</v>
       </c>
       <c r="T4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V4" t="str">
         <f>Table811[Id]</f>
@@ -7386,20 +7310,20 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Pre</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R5" t="str">
         <f>Table8[Id]</f>
@@ -7412,10 +7336,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R6" t="str">
         <f>Table8[Id]</f>
@@ -7428,10 +7352,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R7" t="str">
         <f>Table8[Id]</f>
@@ -7494,16 +7418,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -7515,48 +7439,48 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7564,28 +7488,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7618,15 +7542,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
@@ -7643,81 +7567,81 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E2" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>660</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" t="s">
         <v>157</v>
       </c>
-      <c r="K2" t="s">
-        <v>667</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M2" t="s">
-        <v>159</v>
-      </c>
       <c r="N2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
+      <c r="A3" t="s">
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3">
@@ -7725,32 +7649,32 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
+      <c r="A4" t="s">
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
-      </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4">
@@ -7758,26 +7682,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
+      <c r="A5" t="s">
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -7787,64 +7711,64 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
+      <c r="A6" t="s">
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
+      <c r="A7" t="s">
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -7854,42 +7778,47 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
+      <c r="A8" t="s">
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="H9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7899,16 +7828,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K8">
       <formula1>Actions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:M8 H3:I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:M8 H3:I9">
       <formula1>ItemIds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D9">
       <formula1>SubjectRef</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9">
       <formula1>CondTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 E3:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B9 E3:F9">
       <formula1>Qs</formula1>
     </dataValidation>
   </dataValidations>
@@ -7924,7 +7853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -7943,13 +7872,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -7964,45 +7893,45 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/Template/TestHTS.xlsx
+++ b/Template/TestHTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8100" tabRatio="678" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="8100" tabRatio="678" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name=" Modules &amp; Forms" sheetId="10" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <definedName name="ModulesList">Table2046[[Id]:[Name]]</definedName>
     <definedName name="Qs">'Concepts &amp; Questionniare'!$G$3:$G$8</definedName>
     <definedName name="QVidss">Table11[Ref]</definedName>
-    <definedName name="SubjectRef">Branches!$V$4</definedName>
+    <definedName name="SubjectRef">Branches!$W$4</definedName>
     <definedName name="Validators" localSheetId="7">Table9[Ref]</definedName>
     <definedName name="Validators">Table9[Ref]</definedName>
     <definedName name="ValidatorTypes" localSheetId="7">Table4[Ref]</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="666">
   <si>
     <t>Consent</t>
   </si>
@@ -296,9 +296,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Rid</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
     <t>Qid</t>
   </si>
   <si>
-    <t>GoToQId</t>
-  </si>
-  <si>
     <t>6.Remarks  ,6206b13a-6260-11e7-907b-a6006ad3dba0</t>
   </si>
   <si>
@@ -2067,6 +2061,12 @@
   </si>
   <si>
     <t>Range,6206a2d0-6260-11e7-907b-a6006ad3dba0</t>
+  </si>
+  <si>
+    <t>RefQuestionId</t>
+  </si>
+  <si>
+    <t>GotoQuestionId</t>
   </si>
 </sst>
 </file>
@@ -2648,26 +2648,27 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:I4" totalsRowShown="0">
-  <autoFilter ref="A2:I4"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14" displayName="Table14" ref="A2:J4" totalsRowShown="0">
+  <autoFilter ref="A2:J4"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Id" dataDxfId="6" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="2" name="Qid"/>
-    <tableColumn id="3" name="Type"/>
+    <tableColumn id="2" name="QuestionId"/>
+    <tableColumn id="3" name="ConditionId"/>
+    <tableColumn id="6" name="RefQuestionId"/>
     <tableColumn id="7" name="ResponseType"/>
-    <tableColumn id="9" name="Rid"/>
+    <tableColumn id="9" name="Response"/>
     <tableColumn id="4" name="ResponseComplex"/>
     <tableColumn id="5" name="Group"/>
-    <tableColumn id="10" name="Action"/>
-    <tableColumn id="12" name="GoToQId"/>
+    <tableColumn id="10" name="ActionId"/>
+    <tableColumn id="12" name="GotoQuestionId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="L3:N5" totalsRowShown="0">
-  <autoFilter ref="L3:N5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="M3:O5" totalsRowShown="0">
+  <autoFilter ref="M3:O5"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
@@ -2680,8 +2681,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="P3:R7" totalsRowShown="0">
-  <autoFilter ref="P3:R7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="Q3:S7" totalsRowShown="0">
+  <autoFilter ref="Q3:S7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
@@ -2694,8 +2695,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table811" displayName="Table811" ref="T3:V7" totalsRowShown="0">
-  <autoFilter ref="T3:V7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table811" displayName="Table811" ref="U3:W7" totalsRowShown="0">
+  <autoFilter ref="U3:W7"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Id"/>
@@ -3209,28 +3210,28 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3238,13 +3239,13 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3256,31 +3257,31 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3288,19 +3289,19 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3312,19 +3313,19 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" t="str">
         <f>Table204[[#This Row],[Name]]&amp;","&amp;Table204[[#This Row],[Id]]</f>
@@ -3379,27 +3380,27 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="16"/>
       <c r="J1" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K1" s="16"/>
       <c r="R1" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>23</v>
@@ -3408,37 +3409,37 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3446,7 +3447,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3458,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" t="str">
         <f>C3&amp;"."&amp;D3&amp;"  ,"&amp;A3</f>
@@ -3474,7 +3475,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -3501,7 +3502,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -3513,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">C4&amp;"."&amp;D4&amp;"  ,"&amp;A4</f>
@@ -3529,7 +3530,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3556,7 +3557,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -3568,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -3609,7 +3610,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3621,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -3637,7 +3638,7 @@
         <v>28</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3664,19 +3665,19 @@
         <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -3686,13 +3687,13 @@
         <v>38</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -3709,7 +3710,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="10">
         <v>6</v>
@@ -3721,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -3790,2447 +3791,2447 @@
   <sheetData>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -6243,7 +6244,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6266,32 +6267,32 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="11"/>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -6300,10 +6301,10 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -6312,7 +6313,7 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6320,20 +6321,20 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>YesNo  ,62040a3e-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6367,13 +6368,13 @@
         <v>Result  ,62040b24-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -6400,20 +6401,20 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="str">
         <f>Table1922[[#This Row],[Category]]&amp;"  ,"&amp;Table1922[[#This Row],[Id]]</f>
         <v>Services  ,62040c00-6260-11e7-907b-a6006ad3dba0</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6425,10 +6426,10 @@
         <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O5" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6437,13 +6438,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -6455,10 +6456,10 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O6" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6467,13 +6468,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -6485,10 +6486,10 @@
         <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6497,13 +6498,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -6527,13 +6528,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6557,13 +6558,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -6572,7 +6573,7 @@
         <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -6587,13 +6588,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -6605,10 +6606,10 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" t="str">
         <f>Table19[[#This Row],[Code]]&amp;"  ,"&amp;Table19[[#This Row],[Id]]</f>
@@ -6628,10 +6629,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6665,7 +6667,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B1" s="16"/>
       <c r="K1" s="16" t="s">
@@ -6673,25 +6675,25 @@
       </c>
       <c r="L1" s="16"/>
       <c r="Q1" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -6700,10 +6702,10 @@
         <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -6712,16 +6714,16 @@
         <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6729,13 +6731,13 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6764,10 +6766,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S3" t="str">
         <f>Table4[[#This Row],[Id]]</f>
@@ -6779,13 +6781,13 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6829,13 +6831,13 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6866,13 +6868,13 @@
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -6893,13 +6895,13 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6920,7 +6922,7 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -6953,7 +6955,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -6983,7 +6985,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -7135,233 +7137,243 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="16"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>659</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>654</v>
       </c>
       <c r="D2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J2" t="s">
+        <v>665</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
       <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
       </c>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
-      </c>
-      <c r="T3" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="S3" t="s">
+        <v>103</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="W3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
       <c r="I4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" t="str">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Post</v>
       </c>
-      <c r="P4" t="s">
-        <v>78</v>
-      </c>
       <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="str">
+        <v>77</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" t="str">
         <f>Table8[Id]</f>
         <v>None</v>
       </c>
-      <c r="T4" t="s">
-        <v>85</v>
-      </c>
       <c r="U4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" t="str">
+        <v>84</v>
+      </c>
+      <c r="V4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" t="str">
         <f>Table811[Id]</f>
         <v>Partner</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" t="str">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="str">
         <f>Table6[[#This Row],[Id]]</f>
         <v>Pre</v>
       </c>
-      <c r="P5" t="s">
-        <v>81</v>
-      </c>
       <c r="Q5" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" t="str">
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" t="str">
         <f>Table8[Id]</f>
         <v>Rng</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f>Table811[Id]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P6" t="s">
-        <v>80</v>
-      </c>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q6" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" t="str">
+        <v>79</v>
+      </c>
+      <c r="R6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" t="str">
         <f>Table8[Id]</f>
         <v>Rm</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f>Table811[Id]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P7" t="s">
-        <v>86</v>
-      </c>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q7" t="s">
-        <v>86</v>
-      </c>
-      <c r="R7" t="str">
+        <v>85</v>
+      </c>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" t="str">
         <f>Table8[Id]</f>
         <v>Set</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f>Table811[Id]</f>
         <v>0</v>
       </c>
@@ -7372,16 +7384,16 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 I3:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 J3:J4 D3:D4">
       <formula1>Qs</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G4">
       <formula1>ItemIds</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4">
       <formula1>CondTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4">
       <formula1>Actions</formula1>
     </dataValidation>
   </dataValidations>
@@ -7418,16 +7430,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -7439,22 +7451,22 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7462,25 +7474,25 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7491,25 +7503,25 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7544,7 +7556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7567,81 +7579,81 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" t="s">
         <v>656</v>
-      </c>
-      <c r="D2" t="s">
-        <v>657</v>
-      </c>
-      <c r="E2" t="s">
-        <v>659</v>
-      </c>
-      <c r="F2" t="s">
-        <v>658</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>658</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" t="s">
         <v>155</v>
       </c>
-      <c r="K2" t="s">
-        <v>660</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" t="s">
-        <v>157</v>
-      </c>
       <c r="N2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1"/>
       <c r="N3">
@@ -7650,31 +7662,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1"/>
       <c r="N4">
@@ -7683,25 +7695,25 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -7712,37 +7724,37 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
         <v>113</v>
-      </c>
-      <c r="M6" t="s">
-        <v>114</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -7750,25 +7762,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -7779,37 +7791,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s">
         <v>113</v>
-      </c>
-      <c r="M8" t="s">
-        <v>114</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -7872,13 +7884,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -7893,19 +7905,19 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7913,25 +7925,25 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
